--- a/data/validation_datasets/set3.xlsx
+++ b/data/validation_datasets/set3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarinllao/Documents/B2S/diffuPy/data/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Projects/MultiPath/Results/data/validation_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0CBCC-8A29-1F4B-86AF-8D6425D48210}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCCC3A-BA22-824A-B393-AE88EA512F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="460" windowWidth="18960" windowHeight="11320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16180" yWindow="6700" windowWidth="18960" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Table 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Table 4" sheetId="4" r:id="rId4"/>
+    <sheet name="metabolites" sheetId="2" r:id="rId2"/>
+    <sheet name="genes" sheetId="3" r:id="rId3"/>
+    <sheet name="mirnas" sheetId="4" r:id="rId4"/>
     <sheet name="Table 5" sheetId="5" r:id="rId5"/>
     <sheet name="Table 6" sheetId="6" r:id="rId6"/>
     <sheet name="Table 7" sheetId="7" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="759">
   <si>
     <r>
       <rPr>
@@ -10392,7 +10392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10446,9 +10446,6 @@
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10568,21 +10565,69 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10612,71 +10657,23 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11018,7 +11015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
@@ -11207,44 +11204,44 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79" t="s">
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82" t="s">
+      <c r="J32" s="71"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="79" t="s">
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="81"/>
-      <c r="S32" s="79" t="s">
+      <c r="R32" s="72"/>
+      <c r="S32" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="81"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="72"/>
       <c r="Y32" s="4" t="s">
         <v>38</v>
       </c>
@@ -11253,74 +11250,74 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="75"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="78"/>
     </row>
     <row r="34" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A34" s="64">
+      <c r="A34" s="79">
         <v>1</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="82">
         <v>74</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70">
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85">
         <v>9.4</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="67">
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="82">
         <v>34</v>
       </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="67">
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="82">
         <v>6</v>
       </c>
-      <c r="R34" s="69"/>
-      <c r="S34" s="67">
+      <c r="R34" s="84"/>
+      <c r="S34" s="82">
         <v>24</v>
       </c>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="69"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="84"/>
       <c r="Y34" s="6" t="s">
         <v>41</v>
       </c>
@@ -11329,44 +11326,44 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A35" s="64">
+      <c r="A35" s="79">
         <v>2</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="82">
         <v>32</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70">
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85">
         <v>1.7</v>
       </c>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="67">
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="82">
         <v>1223</v>
       </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="70">
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="85">
         <v>3.1</v>
       </c>
-      <c r="R35" s="72"/>
-      <c r="S35" s="67">
+      <c r="R35" s="87"/>
+      <c r="S35" s="82">
         <v>39</v>
       </c>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="69"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="84"/>
       <c r="Y35" s="6" t="s">
         <v>41</v>
       </c>
@@ -11375,44 +11372,44 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A36" s="64">
+      <c r="A36" s="79">
         <v>3</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="82">
         <v>79</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="70">
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="85">
         <v>6.1</v>
       </c>
-      <c r="J36" s="71"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="67">
+      <c r="J36" s="86"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="82">
         <v>15</v>
       </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="70">
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="85">
         <v>3.5</v>
       </c>
-      <c r="R36" s="72"/>
-      <c r="S36" s="67">
+      <c r="R36" s="87"/>
+      <c r="S36" s="82">
         <v>306</v>
       </c>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="69"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="84"/>
       <c r="Y36" s="6" t="s">
         <v>41</v>
       </c>
@@ -11421,44 +11418,44 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A37" s="64">
+      <c r="A37" s="79">
         <v>4</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="82">
         <v>57</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="70">
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="85">
         <v>2.5</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="67">
+      <c r="J37" s="86"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="82">
         <v>891</v>
       </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="70">
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="85">
         <v>1.7</v>
       </c>
-      <c r="R37" s="72"/>
-      <c r="S37" s="73" t="s">
+      <c r="R37" s="87"/>
+      <c r="S37" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="75"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="78"/>
       <c r="Y37" s="6" t="s">
         <v>41</v>
       </c>
@@ -11467,44 +11464,44 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A38" s="64">
+      <c r="A38" s="79">
         <v>5</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="82">
         <v>63</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="70">
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85">
         <v>8.6</v>
       </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="67">
+      <c r="J38" s="86"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="82">
         <v>8</v>
       </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="70">
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="85">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R38" s="72"/>
-      <c r="S38" s="67">
+      <c r="R38" s="87"/>
+      <c r="S38" s="82">
         <v>16</v>
       </c>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="69"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="83"/>
+      <c r="X38" s="84"/>
       <c r="Y38" s="6" t="s">
         <v>41</v>
       </c>
@@ -11513,44 +11510,44 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A39" s="64">
+      <c r="A39" s="79">
         <v>6</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="82">
         <v>62</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70">
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="85">
         <v>3.1</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="67">
+      <c r="J39" s="86"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="82">
         <v>28</v>
       </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="70">
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="85">
         <v>3.7</v>
       </c>
-      <c r="R39" s="72"/>
-      <c r="S39" s="67">
+      <c r="R39" s="87"/>
+      <c r="S39" s="82">
         <v>17</v>
       </c>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="69"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
       <c r="Y39" s="6" t="s">
         <v>41</v>
       </c>
@@ -11559,44 +11556,44 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A40" s="64">
+      <c r="A40" s="79">
         <v>7</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="82">
         <v>39</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70">
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="85">
         <v>1.5</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="67">
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="82">
         <v>105</v>
       </c>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="70">
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="85">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R40" s="72"/>
-      <c r="S40" s="67">
+      <c r="R40" s="87"/>
+      <c r="S40" s="82">
         <v>21</v>
       </c>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="69"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
       <c r="Y40" s="6" t="s">
         <v>50</v>
       </c>
@@ -11605,44 +11602,44 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A41" s="64">
+      <c r="A41" s="79">
         <v>8</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="82">
         <v>31</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70">
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="85">
         <v>2.1</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="67">
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="82">
         <v>799</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="70">
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="85">
         <v>7.5</v>
       </c>
-      <c r="R41" s="72"/>
-      <c r="S41" s="67">
+      <c r="R41" s="87"/>
+      <c r="S41" s="82">
         <v>25</v>
       </c>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="69"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="84"/>
       <c r="Y41" s="6" t="s">
         <v>41</v>
       </c>
@@ -11651,44 +11648,44 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A42" s="64">
+      <c r="A42" s="79">
         <v>9</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="82">
         <v>50</v>
       </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="70">
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="85">
         <v>12.8</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="67">
+      <c r="J42" s="86"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="82">
         <v>43566</v>
       </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="67">
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="82">
         <v>2</v>
       </c>
-      <c r="R42" s="69"/>
-      <c r="S42" s="73" t="s">
+      <c r="R42" s="84"/>
+      <c r="S42" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="75"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="78"/>
       <c r="Y42" s="6" t="s">
         <v>41</v>
       </c>
@@ -11697,44 +11694,44 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A43" s="64">
+      <c r="A43" s="79">
         <v>10</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="82">
         <v>34</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="67">
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="82">
         <v>4</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="67">
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="82">
         <v>44</v>
       </c>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="70">
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="85">
         <v>5.7</v>
       </c>
-      <c r="R43" s="72"/>
-      <c r="S43" s="67">
+      <c r="R43" s="87"/>
+      <c r="S43" s="82">
         <v>29</v>
       </c>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="69"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="84"/>
       <c r="Y43" s="6" t="s">
         <v>50</v>
       </c>
@@ -11743,116 +11740,116 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="61" t="s">
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="61" t="s">
+      <c r="J44" s="92"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="61" t="s">
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="63"/>
-      <c r="S44" s="61" t="s">
+      <c r="R44" s="93"/>
+      <c r="S44" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="63"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="93"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="75"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="78"/>
     </row>
     <row r="46" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A46" s="64">
+      <c r="A46" s="79">
         <v>11</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="82">
         <v>74</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="70">
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="85">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="67">
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="82">
         <v>9</v>
       </c>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="70">
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="85">
         <v>4010.7</v>
       </c>
-      <c r="R46" s="72"/>
-      <c r="S46" s="67">
+      <c r="R46" s="87"/>
+      <c r="S46" s="82">
         <v>515</v>
       </c>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="69"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="83"/>
+      <c r="W46" s="83"/>
+      <c r="X46" s="84"/>
       <c r="Y46" s="6" t="s">
         <v>63</v>
       </c>
@@ -11861,44 +11858,44 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A47" s="64">
+      <c r="A47" s="79">
         <v>12</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="82">
         <v>72</v>
       </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="70">
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="85">
         <v>3.4</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="67">
+      <c r="J47" s="86"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="82">
         <v>3</v>
       </c>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="70">
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="85">
         <v>4.3</v>
       </c>
-      <c r="R47" s="72"/>
-      <c r="S47" s="67">
+      <c r="R47" s="87"/>
+      <c r="S47" s="82">
         <v>23</v>
       </c>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="69"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="84"/>
       <c r="Y47" s="6" t="s">
         <v>41</v>
       </c>
@@ -11907,44 +11904,44 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A48" s="64">
+      <c r="A48" s="79">
         <v>13</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="82">
         <v>77</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="70">
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="85">
         <v>20.8</v>
       </c>
-      <c r="J48" s="71"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="67">
+      <c r="J48" s="86"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="82">
         <v>160</v>
       </c>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="67">
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="82">
         <v>1750</v>
       </c>
-      <c r="R48" s="69"/>
-      <c r="S48" s="67">
+      <c r="R48" s="84"/>
+      <c r="S48" s="82">
         <v>8177</v>
       </c>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="69"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="83"/>
+      <c r="W48" s="83"/>
+      <c r="X48" s="84"/>
       <c r="Y48" s="6" t="s">
         <v>41</v>
       </c>
@@ -11953,44 +11950,44 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A49" s="64">
+      <c r="A49" s="79">
         <v>14</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="82">
         <v>71</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70">
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="85">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="67">
+      <c r="J49" s="86"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="82">
         <v>10</v>
       </c>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="70">
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="85">
         <v>3.6</v>
       </c>
-      <c r="R49" s="72"/>
-      <c r="S49" s="67">
+      <c r="R49" s="87"/>
+      <c r="S49" s="82">
         <v>767</v>
       </c>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="69"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="83"/>
+      <c r="W49" s="83"/>
+      <c r="X49" s="84"/>
       <c r="Y49" s="6" t="s">
         <v>41</v>
       </c>
@@ -11999,44 +11996,44 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A50" s="64">
+      <c r="A50" s="79">
         <v>15</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="82">
         <v>69</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70">
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="85">
         <v>1.5</v>
       </c>
-      <c r="J50" s="71"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="67">
+      <c r="J50" s="86"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="82">
         <v>2</v>
       </c>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="70">
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="85">
         <v>6.1</v>
       </c>
-      <c r="R50" s="72"/>
-      <c r="S50" s="67">
+      <c r="R50" s="87"/>
+      <c r="S50" s="82">
         <v>39365</v>
       </c>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="69"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="83"/>
+      <c r="W50" s="83"/>
+      <c r="X50" s="84"/>
       <c r="Y50" s="6" t="s">
         <v>41</v>
       </c>
@@ -12045,44 +12042,44 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A51" s="64">
+      <c r="A51" s="79">
         <v>16</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="82">
         <v>76</v>
       </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="67">
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="82">
         <v>2</v>
       </c>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="70">
+      <c r="J51" s="83"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="85">
         <v>2.6</v>
       </c>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="70">
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="85">
         <v>2.9</v>
       </c>
-      <c r="R51" s="72"/>
-      <c r="S51" s="67">
+      <c r="R51" s="87"/>
+      <c r="S51" s="82">
         <v>48911</v>
       </c>
-      <c r="T51" s="68"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
-      <c r="W51" s="68"/>
-      <c r="X51" s="69"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="83"/>
+      <c r="X51" s="84"/>
       <c r="Y51" s="6" t="s">
         <v>41</v>
       </c>
@@ -12091,42 +12088,42 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="60"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="61" t="s">
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="61" t="s">
+      <c r="J52" s="92"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="61" t="s">
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="R52" s="63"/>
-      <c r="S52" s="61" t="s">
+      <c r="R52" s="93"/>
+      <c r="S52" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="63"/>
+      <c r="T52" s="92"/>
+      <c r="U52" s="92"/>
+      <c r="V52" s="92"/>
+      <c r="W52" s="92"/>
+      <c r="X52" s="93"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="10" t="s">
         <v>75</v>
@@ -12144,104 +12141,6 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="A33:Z33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:X42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:X44"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:K52"/>
@@ -12260,6 +12159,104 @@
     <mergeCell ref="L51:P51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:X51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="A33:Z33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:X34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12269,8 +12266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -12292,10 +12289,10 @@
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12303,7 +12300,7 @@
       <c r="A3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="13">
@@ -12314,7 +12311,7 @@
       <c r="A4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="13">
@@ -12325,7 +12322,7 @@
       <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="13">
@@ -12336,7 +12333,7 @@
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="13">
@@ -12347,7 +12344,7 @@
       <c r="A7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="13">
@@ -12358,7 +12355,7 @@
       <c r="A8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="13">
@@ -12369,7 +12366,7 @@
       <c r="A9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="13">
@@ -12380,7 +12377,7 @@
       <c r="A10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="13">
@@ -12391,7 +12388,7 @@
       <c r="A11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="13">
@@ -12402,7 +12399,7 @@
       <c r="A12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="13">
@@ -12413,7 +12410,7 @@
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="13">
@@ -12424,7 +12421,7 @@
       <c r="A14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="13">
@@ -12435,7 +12432,7 @@
       <c r="A15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="13">
@@ -12446,7 +12443,7 @@
       <c r="A16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="13">
@@ -12457,7 +12454,7 @@
       <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="13">
@@ -12468,7 +12465,7 @@
       <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="13">
@@ -12479,7 +12476,7 @@
       <c r="A19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="13">
@@ -12490,7 +12487,7 @@
       <c r="A20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="13">
@@ -12501,7 +12498,7 @@
       <c r="A21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="15">
@@ -12512,7 +12509,7 @@
       <c r="A22" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C22" s="15">
@@ -12523,7 +12520,7 @@
       <c r="A23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="15">
@@ -12534,7 +12531,7 @@
       <c r="A24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="15">
@@ -12545,7 +12542,7 @@
       <c r="A25" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="15">
@@ -12556,7 +12553,7 @@
       <c r="A26" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="15">
@@ -12578,7 +12575,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -12601,13 +12598,13 @@
       <c r="A2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="61" t="s">
         <v>757</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12615,13 +12612,13 @@
       <c r="A3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="58" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="60">
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
@@ -12629,13 +12626,13 @@
       <c r="A4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="58" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="60">
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
@@ -12643,13 +12640,13 @@
       <c r="A5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="60">
         <v>8.34E-4</v>
       </c>
     </row>
@@ -12657,13 +12654,13 @@
       <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="60">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
@@ -12671,13 +12668,13 @@
       <c r="A7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="58" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="60">
         <v>1.7100000000000001E-4</v>
       </c>
     </row>
@@ -12685,13 +12682,13 @@
       <c r="A8" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="58" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="60">
         <v>9.4399999999999996E-4</v>
       </c>
     </row>
@@ -12699,13 +12696,13 @@
       <c r="A9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="58" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="60">
         <v>0.17899999999999999</v>
       </c>
     </row>
@@ -12713,13 +12710,13 @@
       <c r="A10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="58" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="60">
         <v>1.01E-4</v>
       </c>
     </row>
@@ -12727,13 +12724,13 @@
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="60">
         <v>3.16E-3</v>
       </c>
     </row>
@@ -12741,13 +12738,13 @@
       <c r="A12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="60">
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
@@ -12755,13 +12752,13 @@
       <c r="A13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="60">
         <v>3.8899999999999998E-3</v>
       </c>
     </row>
@@ -12769,13 +12766,13 @@
       <c r="A14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="60">
         <v>2.41E-4</v>
       </c>
     </row>
@@ -12783,13 +12780,13 @@
       <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="58" t="s">
         <v>159</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="60">
         <v>7.2399999999999998E-5</v>
       </c>
     </row>
@@ -12797,13 +12794,13 @@
       <c r="A16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="58" t="s">
         <v>162</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>164</v>
       </c>
     </row>
@@ -12811,13 +12808,13 @@
       <c r="A17" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="58" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="60">
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
@@ -12825,13 +12822,13 @@
       <c r="A18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="58" t="s">
         <v>169</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="60">
         <v>1.2E-4</v>
       </c>
     </row>
@@ -12839,13 +12836,13 @@
       <c r="A19" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="60">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
@@ -12853,13 +12850,13 @@
       <c r="A20" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="60">
         <v>6.19E-5</v>
       </c>
     </row>
@@ -12867,13 +12864,13 @@
       <c r="A21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="58" t="s">
         <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="60">
         <v>1.49E-5</v>
       </c>
     </row>
@@ -12881,13 +12878,13 @@
       <c r="A22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="58" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="60">
         <v>2.5699999999999998E-3</v>
       </c>
     </row>
@@ -12895,13 +12892,13 @@
       <c r="A23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="58" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="60">
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
@@ -12909,13 +12906,13 @@
       <c r="A24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="58" t="s">
         <v>187</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="60">
         <v>8.8699999999999994E-3</v>
       </c>
     </row>
@@ -12923,13 +12920,13 @@
       <c r="A25" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="58" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="60">
         <v>2.24E-4</v>
       </c>
     </row>
@@ -12937,13 +12934,13 @@
       <c r="A26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="58" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="60">
         <v>9.6199999999999994E-2</v>
       </c>
     </row>
@@ -12951,13 +12948,13 @@
       <c r="A27" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="58" t="s">
         <v>196</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="60">
         <v>0.25900000000000001</v>
       </c>
     </row>
@@ -12965,13 +12962,13 @@
       <c r="A28" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="58" t="s">
         <v>199</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="60">
         <v>4.2200000000000003E-5</v>
       </c>
     </row>
@@ -12979,13 +12976,13 @@
       <c r="A29" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="58" t="s">
         <v>202</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="88">
+      <c r="D29" s="60">
         <v>0.51200000000000001</v>
       </c>
     </row>
@@ -12993,13 +12990,13 @@
       <c r="A30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="58" t="s">
         <v>205</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="60">
         <v>0.254</v>
       </c>
     </row>
@@ -13007,13 +13004,13 @@
       <c r="A31" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="58" t="s">
         <v>208</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D31" s="60">
         <v>0.13500000000000001</v>
       </c>
     </row>
@@ -13021,13 +13018,13 @@
       <c r="A32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="58" t="s">
         <v>211</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="88">
+      <c r="D32" s="60">
         <v>7.2900000000000006E-2</v>
       </c>
     </row>
@@ -13035,13 +13032,13 @@
       <c r="A33" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="58" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="60">
         <v>0.13600000000000001</v>
       </c>
     </row>
@@ -13049,13 +13046,13 @@
       <c r="A34" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="58" t="s">
         <v>217</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="88">
+      <c r="D34" s="60">
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
@@ -13063,13 +13060,13 @@
       <c r="A35" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="58" t="s">
         <v>220</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="88">
+      <c r="D35" s="60">
         <v>8.4599999999999996E-5</v>
       </c>
     </row>
@@ -13077,13 +13074,13 @@
       <c r="A36" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="58" t="s">
         <v>223</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="60">
         <v>6.7799999999999995E-5</v>
       </c>
     </row>
@@ -13091,13 +13088,13 @@
       <c r="A37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="58" t="s">
         <v>226</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="88">
+      <c r="D37" s="60">
         <v>3.7800000000000003E-4</v>
       </c>
     </row>
@@ -13105,13 +13102,13 @@
       <c r="A38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="58" t="s">
         <v>229</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="60">
         <v>5.7200000000000003E-4</v>
       </c>
     </row>
@@ -13119,13 +13116,13 @@
       <c r="A39" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="60">
         <v>2.5400000000000001E-5</v>
       </c>
     </row>
@@ -13133,13 +13130,13 @@
       <c r="A40" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="58" t="s">
         <v>235</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="88">
+      <c r="D40" s="60">
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
@@ -13147,13 +13144,13 @@
       <c r="A41" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="58" t="s">
         <v>238</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="88">
+      <c r="D41" s="60">
         <v>2.7900000000000001E-5</v>
       </c>
     </row>
@@ -13161,13 +13158,13 @@
       <c r="A42" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="58" t="s">
         <v>241</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="88">
+      <c r="D42" s="60">
         <v>3.2700000000000002E-5</v>
       </c>
     </row>
@@ -13175,13 +13172,13 @@
       <c r="A43" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="58" t="s">
         <v>244</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="88">
+      <c r="D43" s="60">
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
@@ -13189,13 +13186,13 @@
       <c r="A44" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="58" t="s">
         <v>247</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="88">
+      <c r="D44" s="60">
         <v>1.03E-4</v>
       </c>
     </row>
@@ -13203,13 +13200,13 @@
       <c r="A45" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="58" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="88">
+      <c r="D45" s="60">
         <v>9.5799999999999998E-4</v>
       </c>
     </row>
@@ -13217,13 +13214,13 @@
       <c r="A46" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="58" t="s">
         <v>253</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D46" s="88">
+      <c r="D46" s="60">
         <v>1.0399999999999999E-4</v>
       </c>
     </row>
@@ -13231,13 +13228,13 @@
       <c r="A47" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="58" t="s">
         <v>256</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="88">
+      <c r="D47" s="60">
         <v>0.82699999999999996</v>
       </c>
     </row>
@@ -13245,13 +13242,13 @@
       <c r="A48" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="58" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="88">
+      <c r="D48" s="60">
         <v>0.43</v>
       </c>
     </row>
@@ -13259,13 +13256,13 @@
       <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="58" t="s">
         <v>262</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D49" s="88">
+      <c r="D49" s="60">
         <v>0.19700000000000001</v>
       </c>
     </row>
@@ -13273,13 +13270,13 @@
       <c r="A50" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="58" t="s">
         <v>265</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="88">
+      <c r="D50" s="60">
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
@@ -13287,13 +13284,13 @@
       <c r="A51" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="58" t="s">
         <v>268</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="88">
+      <c r="D51" s="60">
         <v>0.114</v>
       </c>
     </row>
@@ -13301,13 +13298,13 @@
       <c r="A52" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="58" t="s">
         <v>271</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="60">
         <v>0.13600000000000001</v>
       </c>
     </row>
@@ -13315,13 +13312,13 @@
       <c r="A53" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="58" t="s">
         <v>274</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="60">
         <v>0.36899999999999999</v>
       </c>
     </row>
@@ -13329,13 +13326,13 @@
       <c r="A54" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="58" t="s">
         <v>277</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="88">
+      <c r="D54" s="60">
         <v>3.0799999999999998E-3</v>
       </c>
     </row>
@@ -13343,13 +13340,13 @@
       <c r="A55" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="58" t="s">
         <v>280</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="60">
         <v>0.108</v>
       </c>
     </row>
@@ -13357,13 +13354,13 @@
       <c r="A56" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="58" t="s">
         <v>283</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="60">
         <v>0.873</v>
       </c>
     </row>
@@ -13371,13 +13368,13 @@
       <c r="A57" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="58" t="s">
         <v>286</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="88">
+      <c r="D57" s="60">
         <v>0.121</v>
       </c>
     </row>
@@ -13385,7 +13382,7 @@
       <c r="A58" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="87"/>
+      <c r="B58" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13394,10 +13391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -13409,146 +13406,154 @@
     <col min="19" max="19" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1">
+    <row r="2" spans="1:2" ht="20.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="62" t="s">
         <v>758</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="60">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="17">
-        <v>2.8499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:2" ht="20.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="60">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:2" ht="20.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="60">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:2" ht="20.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="60">
         <v>6.6599999999999998E-16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:2" ht="20.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="60">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="17">
-        <v>9.73E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:2" ht="20.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="60">
         <v>1.8399999999999999E-14</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:2" ht="20.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="60">
         <v>0.54</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:2" ht="20.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="60">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:2" ht="20.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="60">
         <v>3.2399999999999999E-12</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" ht="14">
+      <c r="A12" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2.8499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14">
+      <c r="A13" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14">
+      <c r="A14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14">
+      <c r="A15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14">
+      <c r="A16" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="17">
+        <v>9.73E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14">
+      <c r="A17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14">
+      <c r="A18" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14">
+      <c r="A19" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13586,7 +13591,7 @@
       <c r="B2" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="57" t="s">
         <v>312</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -13597,138 +13602,138 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>4.3100000000000002E-8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>9.4699999999999994E-8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>9.4699999999999994E-8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2.7099999999999998E-7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>2.7099999999999998E-7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>2.8200000000000001E-7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>2.8799999999999998E-7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>2.8799999999999998E-7</v>
       </c>
     </row>
@@ -13739,7 +13744,7 @@
       <c r="B11" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="58" t="s">
         <v>339</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -13750,45 +13755,45 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="86" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>5.4799999999999998E-7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>9.2699999999999998E-7</v>
       </c>
     </row>
@@ -13799,7 +13804,7 @@
       <c r="B15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -13810,19 +13815,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>1.6700000000000001E-6</v>
       </c>
     </row>
@@ -13833,7 +13838,7 @@
       <c r="B17" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -13844,19 +13849,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>2.2500000000000001E-6</v>
       </c>
     </row>
@@ -13867,7 +13872,7 @@
       <c r="B19" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -13884,7 +13889,7 @@
       <c r="B20" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -13895,53 +13900,53 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>1.06E-5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>1.3200000000000001E-5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>1.7200000000000001E-5</v>
       </c>
     </row>
@@ -13952,7 +13957,7 @@
       <c r="B24" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -13966,42 +13971,42 @@
       <c r="A25" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>5.8400000000000003E-5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>7.25E-5</v>
       </c>
     </row>
@@ -14012,7 +14017,7 @@
       <c r="B28" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -14023,87 +14028,87 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>8.1699999999999994E-5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>8.3700000000000002E-5</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>1.0399999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>1.07E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>2.22E-4</v>
       </c>
     </row>
@@ -14114,13 +14119,13 @@
       <c r="B34" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="58" t="s">
         <v>387</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -14131,13 +14136,13 @@
       <c r="B35" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="58" t="s">
         <v>361</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -14148,13 +14153,13 @@
       <c r="B36" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -14165,13 +14170,13 @@
       <c r="B37" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="24">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -14182,13 +14187,13 @@
       <c r="B38" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="58" t="s">
         <v>348</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="24">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
@@ -14199,30 +14204,30 @@
       <c r="B39" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="58" t="s">
         <v>394</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="24">
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="25">
         <v>2.0300000000000001E-3</v>
       </c>
     </row>
@@ -14233,13 +14238,13 @@
       <c r="B41" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="58" t="s">
         <v>398</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14250,13 +14255,13 @@
       <c r="B42" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14267,13 +14272,13 @@
       <c r="B43" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14284,13 +14289,13 @@
       <c r="B44" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14301,13 +14306,13 @@
       <c r="B45" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14318,13 +14323,13 @@
       <c r="B46" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14335,13 +14340,13 @@
       <c r="B47" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14352,13 +14357,13 @@
       <c r="B48" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14369,13 +14374,13 @@
       <c r="B49" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14386,13 +14391,13 @@
       <c r="B50" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14403,13 +14408,13 @@
       <c r="B51" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14420,13 +14425,13 @@
       <c r="B52" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14437,13 +14442,13 @@
       <c r="B53" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14454,13 +14459,13 @@
       <c r="B54" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14471,13 +14476,13 @@
       <c r="B55" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="26">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14488,13 +14493,13 @@
       <c r="B56" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14505,13 +14510,13 @@
       <c r="B57" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14522,13 +14527,13 @@
       <c r="B58" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14539,13 +14544,13 @@
       <c r="B59" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14556,13 +14561,13 @@
       <c r="B60" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
@@ -14573,30 +14578,30 @@
       <c r="B61" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="58" t="s">
         <v>402</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="28">
         <v>3.0599999999999998E-3</v>
       </c>
     </row>
@@ -14607,30 +14612,30 @@
       <c r="B63" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="58" t="s">
         <v>425</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="29">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="30">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -14641,30 +14646,30 @@
       <c r="B65" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="58" t="s">
         <v>431</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>7.1500000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="28">
         <v>7.9500000000000005E-3</v>
       </c>
     </row>
@@ -14675,30 +14680,30 @@
       <c r="B67" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="58" t="s">
         <v>436</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="27">
         <v>8.6700000000000006E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="31">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -14709,13 +14714,13 @@
       <c r="B69" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="58" t="s">
         <v>442</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="29">
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
@@ -14726,13 +14731,13 @@
       <c r="B70" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="58" t="s">
         <v>445</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="29">
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
@@ -14743,13 +14748,13 @@
       <c r="B71" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C71" s="86" t="s">
+      <c r="C71" s="58" t="s">
         <v>448</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="29">
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
@@ -14760,13 +14765,13 @@
       <c r="B72" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C72" s="86" t="s">
+      <c r="C72" s="58" t="s">
         <v>450</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="29">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
@@ -14777,47 +14782,47 @@
       <c r="B73" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="58" t="s">
         <v>450</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="29">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="30">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="30">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
@@ -14828,13 +14833,13 @@
       <c r="B76" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C76" s="58" t="s">
         <v>450</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="29">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
@@ -14845,13 +14850,13 @@
       <c r="B77" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="58" t="s">
         <v>450</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="29">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
@@ -14862,13 +14867,13 @@
       <c r="B78" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="58" t="s">
         <v>457</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14879,13 +14884,13 @@
       <c r="B79" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="58" t="s">
         <v>457</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14896,13 +14901,13 @@
       <c r="B80" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="58" t="s">
         <v>461</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14913,13 +14918,13 @@
       <c r="B81" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="58" t="s">
         <v>461</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14930,13 +14935,13 @@
       <c r="B82" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="58" t="s">
         <v>461</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14947,13 +14952,13 @@
       <c r="B83" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="58" t="s">
         <v>461</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -14964,64 +14969,64 @@
       <c r="B84" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="58" t="s">
         <v>461</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C85" s="92" t="s">
+      <c r="C85" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C86" s="92" t="s">
+      <c r="C86" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E87" s="31">
+      <c r="E87" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -15032,98 +15037,98 @@
       <c r="B88" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="29">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C89" s="92" t="s">
+      <c r="C89" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E89" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C90" s="92" t="s">
+      <c r="C90" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E90" s="31">
+      <c r="E90" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C91" s="92" t="s">
+      <c r="C91" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E91" s="31">
+      <c r="E91" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C92" s="92" t="s">
+      <c r="C92" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="E92" s="31">
+      <c r="E92" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="E93" s="31">
+      <c r="E93" s="30">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
@@ -15134,13 +15139,13 @@
       <c r="B94" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15151,13 +15156,13 @@
       <c r="B95" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15168,13 +15173,13 @@
       <c r="B96" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15185,30 +15190,30 @@
       <c r="B97" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C98" s="92" t="s">
+      <c r="C98" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="E98" s="31">
+      <c r="E98" s="30">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15219,13 +15224,13 @@
       <c r="B99" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D99" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15236,30 +15241,30 @@
       <c r="B100" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C100" s="86" t="s">
+      <c r="C100" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C101" s="92" t="s">
+      <c r="C101" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E101" s="31">
+      <c r="E101" s="30">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15270,13 +15275,13 @@
       <c r="B102" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C102" s="86" t="s">
+      <c r="C102" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15287,30 +15292,30 @@
       <c r="B103" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C104" s="92" t="s">
+      <c r="C104" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E104" s="31">
+      <c r="E104" s="30">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15321,30 +15326,30 @@
       <c r="B105" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C106" s="92" t="s">
+      <c r="C106" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E106" s="31">
+      <c r="E106" s="30">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15355,13 +15360,13 @@
       <c r="B107" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C107" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15372,13 +15377,13 @@
       <c r="B108" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C108" s="86" t="s">
+      <c r="C108" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15389,13 +15394,13 @@
       <c r="B109" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15406,13 +15411,13 @@
       <c r="B110" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C110" s="86" t="s">
+      <c r="C110" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15423,13 +15428,13 @@
       <c r="B111" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="86" t="s">
+      <c r="C111" s="58" t="s">
         <v>387</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15440,13 +15445,13 @@
       <c r="B112" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="86" t="s">
+      <c r="C112" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E112" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15457,30 +15462,30 @@
       <c r="B113" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="58" t="s">
         <v>486</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E113" s="30">
+      <c r="E113" s="29">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C114" s="92" t="s">
+      <c r="C114" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="E114" s="31">
+      <c r="E114" s="30">
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
@@ -15491,39 +15496,39 @@
       <c r="B115" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="86" t="s">
+      <c r="C115" s="58" t="s">
         <v>506</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E115" s="30">
+      <c r="E115" s="29">
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.75" customHeight="1">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="86" t="s">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
     </row>
     <row r="117" spans="1:5" ht="20.5" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="E117" s="36">
+      <c r="E117" s="35">
         <v>0.04</v>
       </c>
     </row>
@@ -15531,16 +15536,16 @@
       <c r="A118" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C118" s="86" t="s">
+      <c r="C118" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="E118" s="30">
+      <c r="E118" s="29">
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
@@ -15548,16 +15553,16 @@
       <c r="A119" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="86" t="s">
+      <c r="C119" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="E119" s="30">
+      <c r="E119" s="29">
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
@@ -15597,7 +15602,7 @@
       <c r="B2" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="57" t="s">
         <v>517</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -15608,104 +15613,104 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>5.6400000000000002E-10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>5.6400000000000002E-10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>3.6199999999999999E-9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>5.3400000000000002E-9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>7.2500000000000004E-9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>1.2100000000000001E-8</v>
       </c>
     </row>
@@ -15716,7 +15721,7 @@
       <c r="B9" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="58" t="s">
         <v>533</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -15730,112 +15735,112 @@
       <c r="A10" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>1.3200000000000001E-8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>1.6400000000000001E-8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>1.6400000000000001E-8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>1.6400000000000001E-8</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>1.6400000000000001E-8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>1.6400000000000001E-8</v>
       </c>
     </row>
@@ -15843,10 +15848,10 @@
       <c r="A17" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="58" t="s">
         <v>533</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -15857,113 +15862,113 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="91" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="63" t="s">
         <v>525</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>2.3400000000000001E-8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>4.4199999999999999E-8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>2.0599999999999999E-7</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>6.8700000000000005E-7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="108" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>3.0599999999999999E-6</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>3.5200000000000002E-6</v>
       </c>
     </row>
@@ -15974,7 +15979,7 @@
       <c r="B25" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="58" t="s">
         <v>565</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -15985,317 +15990,317 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.75" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="86" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>5.57E-6</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>2.5899999999999999E-5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="63" t="s">
         <v>573</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>2.9499999999999999E-5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>6.02E-5</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="63" t="s">
         <v>577</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>1E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>2.43E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>2.8600000000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="63" t="s">
         <v>587</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="39">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="91" t="s">
+      <c r="C37" s="63" t="s">
         <v>590</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="39">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="39">
         <v>3.97E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="63" t="s">
         <v>597</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="39">
         <v>3.97E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="39">
         <v>6.7699999999999998E-4</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="39">
         <v>6.7699999999999998E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="58" t="s">
         <v>603</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="39">
         <v>7.1299999999999998E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="25">
         <v>1.09E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="63" t="s">
         <v>610</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="25">
         <v>3.8300000000000001E-3</v>
       </c>
     </row>
@@ -16306,56 +16311,56 @@
       <c r="B45" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="58" t="s">
         <v>612</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="40">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="86" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="58" t="s">
         <v>613</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="25">
         <v>5.9899999999999997E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C48" s="91" t="s">
+      <c r="C48" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="25">
         <v>9.0699999999999999E-3</v>
       </c>
     </row>
@@ -16366,13 +16371,13 @@
       <c r="B49" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="58" t="s">
         <v>620</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="40">
         <v>1.52E-2</v>
       </c>
     </row>
@@ -16383,64 +16388,64 @@
       <c r="B50" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="58" t="s">
         <v>620</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="40">
         <v>1.52E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="91" t="s">
+      <c r="C51" s="63" t="s">
         <v>623</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="41">
         <v>1.78E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="91" t="s">
+      <c r="C52" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>2.07E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="63" t="s">
         <v>626</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="41">
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
@@ -16453,8 +16458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -16490,884 +16495,884 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="57" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="57" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="58" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="60">
         <v>2.5400000000000002E-25</v>
       </c>
       <c r="C3" s="7">
         <v>32</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="58" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="60">
         <v>8.3699999999999996E-23</v>
       </c>
       <c r="C4" s="7">
         <v>52</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="58" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="60">
         <v>1.0999999999999999E-19</v>
       </c>
       <c r="C5" s="7">
         <v>49</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="58" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="60">
         <v>1.13E-19</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="60">
         <v>1.25E-17</v>
       </c>
       <c r="C7" s="7">
         <v>30</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="58" t="s">
         <v>637</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="60">
         <v>1.2699999999999999E-15</v>
       </c>
       <c r="C8" s="7">
         <v>32</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="58" t="s">
         <v>638</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="60">
         <v>1.15E-14</v>
       </c>
       <c r="C9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="60">
         <v>1.78E-13</v>
       </c>
       <c r="C10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="58" t="s">
         <v>640</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="60">
         <v>1.2200000000000001E-12</v>
       </c>
       <c r="C11" s="7">
         <v>28</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="60">
         <v>1.41E-10</v>
       </c>
       <c r="C12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="60">
         <v>2.2900000000000001E-10</v>
       </c>
       <c r="C13" s="7">
         <v>25</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="58" t="s">
         <v>643</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="60">
         <v>3.3E-10</v>
       </c>
       <c r="C14" s="7">
         <v>74</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="58" t="s">
         <v>644</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="60">
         <v>3.3E-10</v>
       </c>
       <c r="C15" s="7">
         <v>24</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="58" t="s">
         <v>645</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="60">
         <v>8.9999999999999999E-10</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="60">
         <v>1.99E-9</v>
       </c>
       <c r="C17" s="7">
         <v>27</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="58" t="s">
         <v>647</v>
       </c>
-      <c r="B18" s="88">
+      <c r="B18" s="60">
         <v>7.0399999999999997E-9</v>
       </c>
       <c r="C18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="58" t="s">
         <v>648</v>
       </c>
-      <c r="B19" s="88">
+      <c r="B19" s="60">
         <v>8.0999999999999997E-9</v>
       </c>
       <c r="C19" s="7">
         <v>19</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="58" t="s">
         <v>649</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="60">
         <v>1.92E-8</v>
       </c>
       <c r="C20" s="7">
         <v>72</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="58" t="s">
         <v>650</v>
       </c>
-      <c r="B21" s="88">
+      <c r="B21" s="60">
         <v>1.9399999999999998E-8</v>
       </c>
       <c r="C21" s="7">
         <v>23</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="58" t="s">
         <v>651</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="60">
         <v>2.9700000000000001E-8</v>
       </c>
       <c r="C22" s="7">
         <v>18</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="58" t="s">
         <v>652</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="60">
         <v>3.4900000000000001E-7</v>
       </c>
       <c r="C23" s="7">
         <v>20</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="60">
         <v>5.7400000000000003E-7</v>
       </c>
       <c r="C24" s="7">
         <v>47</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="58" t="s">
         <v>654</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="60">
         <v>1.99E-6</v>
       </c>
       <c r="C25" s="7">
         <v>40</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="58" t="s">
         <v>655</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="60">
         <v>3.2100000000000002E-6</v>
       </c>
       <c r="C26" s="7">
         <v>34</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="58" t="s">
         <v>656</v>
       </c>
-      <c r="B27" s="88">
+      <c r="B27" s="60">
         <v>5.7300000000000002E-6</v>
       </c>
       <c r="C27" s="7">
         <v>16</v>
       </c>
-      <c r="D27" s="94">
+      <c r="D27" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="58" t="s">
         <v>657</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="60">
         <v>5.3100000000000003E-5</v>
       </c>
       <c r="C28" s="7">
         <v>47</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="58" t="s">
         <v>658</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="60">
         <v>5.5099999999999998E-5</v>
       </c>
       <c r="C29" s="7">
         <v>16</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="58" t="s">
         <v>659</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="60">
         <v>5.5099999999999998E-5</v>
       </c>
       <c r="C30" s="7">
         <v>25</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="58" t="s">
         <v>660</v>
       </c>
-      <c r="B31" s="88">
+      <c r="B31" s="60">
         <v>1.05E-4</v>
       </c>
       <c r="C31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="58" t="s">
         <v>661</v>
       </c>
-      <c r="B32" s="88">
+      <c r="B32" s="60">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C32" s="7">
         <v>26</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="B33" s="88">
+      <c r="B33" s="60">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C33" s="7">
         <v>37</v>
       </c>
-      <c r="D33" s="94">
+      <c r="D33" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="58" t="s">
         <v>663</v>
       </c>
-      <c r="B34" s="88">
+      <c r="B34" s="60">
         <v>3.0800000000000001E-4</v>
       </c>
       <c r="C34" s="7">
         <v>41</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="58" t="s">
         <v>664</v>
       </c>
-      <c r="B35" s="88">
+      <c r="B35" s="60">
         <v>4.4700000000000002E-4</v>
       </c>
       <c r="C35" s="7">
         <v>40</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="58" t="s">
         <v>665</v>
       </c>
-      <c r="B36" s="88">
+      <c r="B36" s="60">
         <v>5.5599999999999996E-4</v>
       </c>
       <c r="C36" s="7">
         <v>14</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="58" t="s">
         <v>666</v>
       </c>
-      <c r="B37" s="88">
+      <c r="B37" s="60">
         <v>1.2800000000000001E-3</v>
       </c>
       <c r="C37" s="7">
         <v>27</v>
       </c>
-      <c r="D37" s="94">
+      <c r="D37" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="B38" s="88">
+      <c r="B38" s="60">
         <v>1.9599999999999999E-3</v>
       </c>
       <c r="C38" s="7">
         <v>27</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="58" t="s">
         <v>668</v>
       </c>
-      <c r="B39" s="88">
+      <c r="B39" s="60">
         <v>2E-3</v>
       </c>
       <c r="C39" s="7">
         <v>19</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="58" t="s">
         <v>669</v>
       </c>
-      <c r="B40" s="88">
+      <c r="B40" s="60">
         <v>2.82E-3</v>
       </c>
       <c r="C40" s="7">
         <v>15</v>
       </c>
-      <c r="D40" s="94">
+      <c r="D40" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="58" t="s">
         <v>670</v>
       </c>
-      <c r="B41" s="88">
+      <c r="B41" s="60">
         <v>2.82E-3</v>
       </c>
       <c r="C41" s="7">
         <v>15</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="66">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="58" t="s">
         <v>671</v>
       </c>
-      <c r="B42" s="88">
+      <c r="B42" s="60">
         <v>2.9299999999999999E-3</v>
       </c>
       <c r="C42" s="7">
         <v>14</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="58" t="s">
         <v>672</v>
       </c>
-      <c r="B43" s="88">
+      <c r="B43" s="60">
         <v>4.1599999999999996E-3</v>
       </c>
       <c r="C43" s="7">
         <v>9</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="58" t="s">
         <v>673</v>
       </c>
-      <c r="B44" s="88">
+      <c r="B44" s="60">
         <v>4.4600000000000004E-3</v>
       </c>
       <c r="C44" s="7">
         <v>18</v>
       </c>
-      <c r="D44" s="94">
+      <c r="D44" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="58" t="s">
         <v>674</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="60">
         <v>4.47E-3</v>
       </c>
       <c r="C45" s="7">
         <v>23</v>
       </c>
-      <c r="D45" s="94">
+      <c r="D45" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="58" t="s">
         <v>675</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="60">
         <v>4.8399999999999997E-3</v>
       </c>
       <c r="C46" s="7">
         <v>18</v>
       </c>
-      <c r="D46" s="94">
+      <c r="D46" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="58" t="s">
         <v>676</v>
       </c>
-      <c r="B47" s="88">
+      <c r="B47" s="60">
         <v>4.8799999999999998E-3</v>
       </c>
       <c r="C47" s="7">
         <v>16</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="58" t="s">
         <v>677</v>
       </c>
-      <c r="B48" s="88">
+      <c r="B48" s="60">
         <v>5.1799999999999997E-3</v>
       </c>
       <c r="C48" s="7">
         <v>20</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="58" t="s">
         <v>678</v>
       </c>
-      <c r="B49" s="88">
+      <c r="B49" s="60">
         <v>6.0400000000000002E-3</v>
       </c>
       <c r="C49" s="7">
         <v>8</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="58" t="s">
         <v>679</v>
       </c>
-      <c r="B50" s="88">
+      <c r="B50" s="60">
         <v>6.0699999999999999E-3</v>
       </c>
       <c r="C50" s="7">
         <v>29</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="58" t="s">
         <v>680</v>
       </c>
-      <c r="B51" s="88">
+      <c r="B51" s="60">
         <v>6.3099999999999996E-3</v>
       </c>
       <c r="C51" s="7">
         <v>25</v>
       </c>
-      <c r="D51" s="94">
+      <c r="D51" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="58" t="s">
         <v>681</v>
       </c>
-      <c r="B52" s="88">
+      <c r="B52" s="60">
         <v>6.6100000000000004E-3</v>
       </c>
       <c r="C52" s="7">
         <v>47</v>
       </c>
-      <c r="D52" s="94">
+      <c r="D52" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="58" t="s">
         <v>682</v>
       </c>
-      <c r="B53" s="88">
+      <c r="B53" s="60">
         <v>7.1599999999999997E-3</v>
       </c>
       <c r="C53" s="7">
         <v>11</v>
       </c>
-      <c r="D53" s="94">
+      <c r="D53" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="58" t="s">
         <v>683</v>
       </c>
-      <c r="B54" s="88">
+      <c r="B54" s="60">
         <v>7.1599999999999997E-3</v>
       </c>
       <c r="C54" s="7">
         <v>15</v>
       </c>
-      <c r="D54" s="94">
+      <c r="D54" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="58" t="s">
         <v>684</v>
       </c>
-      <c r="B55" s="88">
+      <c r="B55" s="60">
         <v>7.8100000000000001E-3</v>
       </c>
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="94">
+      <c r="D55" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="58" t="s">
         <v>685</v>
       </c>
-      <c r="B56" s="88">
+      <c r="B56" s="60">
         <v>7.9399999999999991E-3</v>
       </c>
       <c r="C56" s="7">
         <v>28</v>
       </c>
-      <c r="D56" s="94">
+      <c r="D56" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="58" t="s">
         <v>686</v>
       </c>
-      <c r="B57" s="88">
+      <c r="B57" s="60">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="C57" s="7">
         <v>15</v>
       </c>
-      <c r="D57" s="94">
+      <c r="D57" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="58" t="s">
         <v>687</v>
       </c>
-      <c r="B58" s="88">
+      <c r="B58" s="60">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="94">
+      <c r="D58" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="58" t="s">
         <v>688</v>
       </c>
-      <c r="B59" s="88">
+      <c r="B59" s="60">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="C59" s="7">
         <v>18</v>
       </c>
-      <c r="D59" s="94">
+      <c r="D59" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="58" t="s">
         <v>689</v>
       </c>
-      <c r="B60" s="88">
+      <c r="B60" s="60">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C60" s="7">
         <v>12</v>
       </c>
-      <c r="D60" s="94">
+      <c r="D60" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="58" t="s">
         <v>690</v>
       </c>
-      <c r="B61" s="88">
+      <c r="B61" s="60">
         <v>2.64E-2</v>
       </c>
       <c r="C61" s="7">
         <v>7</v>
       </c>
-      <c r="D61" s="94">
+      <c r="D61" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="58" t="s">
         <v>691</v>
       </c>
-      <c r="B62" s="88">
+      <c r="B62" s="60">
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="C62" s="7">
         <v>10</v>
       </c>
-      <c r="D62" s="94">
+      <c r="D62" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20.75" customHeight="1">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="58" t="s">
         <v>692</v>
       </c>
-      <c r="B63" s="88">
+      <c r="B63" s="60">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="C63" s="7">
         <v>16</v>
       </c>
-      <c r="D63" s="94">
+      <c r="D63" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.5" customHeight="1">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="B64" s="88">
+      <c r="B64" s="60">
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="C64" s="7">
         <v>34</v>
       </c>
-      <c r="D64" s="94">
+      <c r="D64" s="66">
         <v>7</v>
       </c>
     </row>
@@ -17407,47 +17412,47 @@
       </c>
     </row>
     <row r="72" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A72" s="43">
+      <c r="A72" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="24.5" customHeight="1">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="43" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="44" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="20" customHeight="1">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="45" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="46" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="20" customHeight="1">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="45" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="46" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="44" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="47" t="s">
         <v>708</v>
       </c>
     </row>
@@ -17457,7 +17462,7 @@
       </c>
     </row>
     <row r="82" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="48" t="s">
         <v>710</v>
       </c>
     </row>
@@ -17472,7 +17477,7 @@
       </c>
     </row>
     <row r="85" spans="1:1" ht="11.5" customHeight="1">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>32</v>
       </c>
     </row>
@@ -17482,7 +17487,7 @@
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A87" s="51">
+      <c r="A87" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17507,7 +17512,7 @@
       </c>
     </row>
     <row r="92" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>718</v>
       </c>
     </row>
@@ -17517,7 +17522,7 @@
       </c>
     </row>
     <row r="94" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="44" t="s">
         <v>720</v>
       </c>
     </row>
@@ -17537,82 +17542,82 @@
       </c>
     </row>
     <row r="98" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="44" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="46" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="46" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="44" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="47" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="46" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="46" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="46" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="51" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="46" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="51" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="46" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="51" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A111" s="51">
+      <c r="A111" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="52" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="52" t="s">
         <v>738</v>
       </c>
     </row>
@@ -17622,22 +17627,22 @@
       </c>
     </row>
     <row r="115" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="44" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="47" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="46" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="46" t="s">
         <v>743</v>
       </c>
     </row>
@@ -17652,7 +17657,7 @@
       </c>
     </row>
     <row r="121" spans="1:1" ht="24.25" customHeight="1">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="44" t="s">
         <v>746</v>
       </c>
     </row>
@@ -17662,7 +17667,7 @@
       </c>
     </row>
     <row r="123" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="51" t="s">
         <v>748</v>
       </c>
     </row>
@@ -17677,7 +17682,7 @@
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="46" t="s">
         <v>751</v>
       </c>
     </row>
@@ -17687,27 +17692,27 @@
       </c>
     </row>
     <row r="128" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="46" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A129" s="51">
+      <c r="A129" s="50">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A130" s="47" t="s">
+      <c r="A130" s="46" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="52" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17.5" customHeight="1">
-      <c r="A132" s="51">
+      <c r="A132" s="50">
         <v>4</v>
       </c>
     </row>

--- a/data/validation_datasets/set3.xlsx
+++ b/data/validation_datasets/set3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Projects/MultiPath/Results/data/validation_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCCC3A-BA22-824A-B393-AE88EA512F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F0742-E6FA-924C-8CA7-D52241FEEBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="6700" windowWidth="18960" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="26660" windowHeight="18160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -2565,16 +2565,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>alpha-1-microglobulin/bikunin precursor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>AMBP</t>
     </r>
   </si>
@@ -10089,6 +10079,9 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha-1-microglobulin,bikunin precursor</t>
   </si>
 </sst>
 </file>
@@ -10392,7 +10385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10595,39 +10588,21 @@
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10657,23 +10632,44 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11204,44 +11200,44 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70" t="s">
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73" t="s">
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="70" t="s">
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="72"/>
-      <c r="S32" s="70" t="s">
+      <c r="R32" s="90"/>
+      <c r="S32" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="72"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="90"/>
       <c r="Y32" s="4" t="s">
         <v>38</v>
       </c>
@@ -11250,74 +11246,74 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="78"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="84"/>
     </row>
     <row r="34" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A34" s="79">
+      <c r="A34" s="73">
         <v>1</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="76">
         <v>74</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85">
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="79">
         <v>9.4</v>
       </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="82">
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="76">
         <v>34</v>
       </c>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="82">
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="76">
         <v>6</v>
       </c>
-      <c r="R34" s="84"/>
-      <c r="S34" s="82">
+      <c r="R34" s="78"/>
+      <c r="S34" s="76">
         <v>24</v>
       </c>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="84"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="78"/>
       <c r="Y34" s="6" t="s">
         <v>41</v>
       </c>
@@ -11326,44 +11322,44 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A35" s="79">
+      <c r="A35" s="73">
         <v>2</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="76">
         <v>32</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85">
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79">
         <v>1.7</v>
       </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="82">
+      <c r="J35" s="80"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="76">
         <v>1223</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="85">
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="79">
         <v>3.1</v>
       </c>
-      <c r="R35" s="87"/>
-      <c r="S35" s="82">
+      <c r="R35" s="81"/>
+      <c r="S35" s="76">
         <v>39</v>
       </c>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="84"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="78"/>
       <c r="Y35" s="6" t="s">
         <v>41</v>
       </c>
@@ -11372,44 +11368,44 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A36" s="79">
+      <c r="A36" s="73">
         <v>3</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="76">
         <v>79</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="85">
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79">
         <v>6.1</v>
       </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="82">
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="76">
         <v>15</v>
       </c>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="85">
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="79">
         <v>3.5</v>
       </c>
-      <c r="R36" s="87"/>
-      <c r="S36" s="82">
+      <c r="R36" s="81"/>
+      <c r="S36" s="76">
         <v>306</v>
       </c>
-      <c r="T36" s="83"/>
-      <c r="U36" s="83"/>
-      <c r="V36" s="83"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="84"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="78"/>
       <c r="Y36" s="6" t="s">
         <v>41</v>
       </c>
@@ -11418,44 +11414,44 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A37" s="79">
+      <c r="A37" s="73">
         <v>4</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="76">
         <v>57</v>
       </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="85">
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="79">
         <v>2.5</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="82">
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="76">
         <v>891</v>
       </c>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="85">
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="79">
         <v>1.7</v>
       </c>
-      <c r="R37" s="87"/>
-      <c r="S37" s="76" t="s">
+      <c r="R37" s="81"/>
+      <c r="S37" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="78"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="84"/>
       <c r="Y37" s="6" t="s">
         <v>41</v>
       </c>
@@ -11464,44 +11460,44 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A38" s="79">
+      <c r="A38" s="73">
         <v>5</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="76">
         <v>63</v>
       </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85">
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="79">
         <v>8.6</v>
       </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="82">
+      <c r="J38" s="80"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="76">
         <v>8</v>
       </c>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="85">
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="79">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R38" s="87"/>
-      <c r="S38" s="82">
+      <c r="R38" s="81"/>
+      <c r="S38" s="76">
         <v>16</v>
       </c>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
-      <c r="W38" s="83"/>
-      <c r="X38" s="84"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="78"/>
       <c r="Y38" s="6" t="s">
         <v>41</v>
       </c>
@@ -11510,44 +11506,44 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A39" s="79">
+      <c r="A39" s="73">
         <v>6</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="76">
         <v>62</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="85">
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="79">
         <v>3.1</v>
       </c>
-      <c r="J39" s="86"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="82">
+      <c r="J39" s="80"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="76">
         <v>28</v>
       </c>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="85">
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="79">
         <v>3.7</v>
       </c>
-      <c r="R39" s="87"/>
-      <c r="S39" s="82">
+      <c r="R39" s="81"/>
+      <c r="S39" s="76">
         <v>17</v>
       </c>
-      <c r="T39" s="83"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="78"/>
       <c r="Y39" s="6" t="s">
         <v>41</v>
       </c>
@@ -11556,44 +11552,44 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A40" s="79">
+      <c r="A40" s="73">
         <v>7</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="76">
         <v>39</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="85">
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79">
         <v>1.5</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="82">
+      <c r="J40" s="80"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="76">
         <v>105</v>
       </c>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="85">
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R40" s="87"/>
-      <c r="S40" s="82">
+      <c r="R40" s="81"/>
+      <c r="S40" s="76">
         <v>21</v>
       </c>
-      <c r="T40" s="83"/>
-      <c r="U40" s="83"/>
-      <c r="V40" s="83"/>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="78"/>
       <c r="Y40" s="6" t="s">
         <v>50</v>
       </c>
@@ -11602,44 +11598,44 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A41" s="79">
+      <c r="A41" s="73">
         <v>8</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="82">
+      <c r="E41" s="76">
         <v>31</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85">
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="79">
         <v>2.1</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="82">
+      <c r="J41" s="80"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="76">
         <v>799</v>
       </c>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="85">
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="79">
         <v>7.5</v>
       </c>
-      <c r="R41" s="87"/>
-      <c r="S41" s="82">
+      <c r="R41" s="81"/>
+      <c r="S41" s="76">
         <v>25</v>
       </c>
-      <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="84"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="78"/>
       <c r="Y41" s="6" t="s">
         <v>41</v>
       </c>
@@ -11648,44 +11644,44 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A42" s="79">
+      <c r="A42" s="73">
         <v>9</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="76">
         <v>50</v>
       </c>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85">
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79">
         <v>12.8</v>
       </c>
-      <c r="J42" s="86"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="82">
+      <c r="J42" s="80"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="76">
         <v>43566</v>
       </c>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="82">
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="76">
         <v>2</v>
       </c>
-      <c r="R42" s="84"/>
-      <c r="S42" s="76" t="s">
+      <c r="R42" s="78"/>
+      <c r="S42" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="78"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="84"/>
       <c r="Y42" s="6" t="s">
         <v>41</v>
       </c>
@@ -11694,44 +11690,44 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A43" s="79">
+      <c r="A43" s="73">
         <v>10</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="76">
         <v>34</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="82">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="76">
         <v>4</v>
       </c>
-      <c r="J43" s="83"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="82">
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="76">
         <v>44</v>
       </c>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="85">
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="79">
         <v>5.7</v>
       </c>
-      <c r="R43" s="87"/>
-      <c r="S43" s="82">
+      <c r="R43" s="81"/>
+      <c r="S43" s="76">
         <v>29</v>
       </c>
-      <c r="T43" s="83"/>
-      <c r="U43" s="83"/>
-      <c r="V43" s="83"/>
-      <c r="W43" s="83"/>
-      <c r="X43" s="84"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="78"/>
       <c r="Y43" s="6" t="s">
         <v>50</v>
       </c>
@@ -11740,116 +11736,116 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="91" t="s">
+      <c r="E44" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="91" t="s">
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="92"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="91" t="s">
+      <c r="J44" s="71"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="91" t="s">
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="93"/>
-      <c r="S44" s="91" t="s">
+      <c r="R44" s="72"/>
+      <c r="S44" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="93"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="72"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="78"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="84"/>
     </row>
     <row r="46" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A46" s="79">
+      <c r="A46" s="73">
         <v>11</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="82">
+      <c r="E46" s="76">
         <v>74</v>
       </c>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85">
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="79">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J46" s="86"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="82">
+      <c r="J46" s="80"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="76">
         <v>9</v>
       </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="85">
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="79">
         <v>4010.7</v>
       </c>
-      <c r="R46" s="87"/>
-      <c r="S46" s="82">
+      <c r="R46" s="81"/>
+      <c r="S46" s="76">
         <v>515</v>
       </c>
-      <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="84"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="78"/>
       <c r="Y46" s="6" t="s">
         <v>63</v>
       </c>
@@ -11858,44 +11854,44 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A47" s="79">
+      <c r="A47" s="73">
         <v>12</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="82">
+      <c r="E47" s="76">
         <v>72</v>
       </c>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85">
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="79">
         <v>3.4</v>
       </c>
-      <c r="J47" s="86"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="82">
+      <c r="J47" s="80"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="76">
         <v>3</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="85">
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="79">
         <v>4.3</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="82">
+      <c r="R47" s="81"/>
+      <c r="S47" s="76">
         <v>23</v>
       </c>
-      <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="83"/>
-      <c r="W47" s="83"/>
-      <c r="X47" s="84"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="78"/>
       <c r="Y47" s="6" t="s">
         <v>41</v>
       </c>
@@ -11904,44 +11900,44 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A48" s="79">
+      <c r="A48" s="73">
         <v>13</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="76">
         <v>77</v>
       </c>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="85">
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="79">
         <v>20.8</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="82">
+      <c r="J48" s="80"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="76">
         <v>160</v>
       </c>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="82">
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="76">
         <v>1750</v>
       </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="82">
+      <c r="R48" s="78"/>
+      <c r="S48" s="76">
         <v>8177</v>
       </c>
-      <c r="T48" s="83"/>
-      <c r="U48" s="83"/>
-      <c r="V48" s="83"/>
-      <c r="W48" s="83"/>
-      <c r="X48" s="84"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="78"/>
       <c r="Y48" s="6" t="s">
         <v>41</v>
       </c>
@@ -11950,44 +11946,44 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A49" s="79">
+      <c r="A49" s="73">
         <v>14</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="82">
+      <c r="E49" s="76">
         <v>71</v>
       </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85">
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="82">
+      <c r="J49" s="80"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="76">
         <v>10</v>
       </c>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="85">
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="79">
         <v>3.6</v>
       </c>
-      <c r="R49" s="87"/>
-      <c r="S49" s="82">
+      <c r="R49" s="81"/>
+      <c r="S49" s="76">
         <v>767</v>
       </c>
-      <c r="T49" s="83"/>
-      <c r="U49" s="83"/>
-      <c r="V49" s="83"/>
-      <c r="W49" s="83"/>
-      <c r="X49" s="84"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="78"/>
       <c r="Y49" s="6" t="s">
         <v>41</v>
       </c>
@@ -11996,44 +11992,44 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A50" s="79">
+      <c r="A50" s="73">
         <v>15</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="82">
+      <c r="E50" s="76">
         <v>69</v>
       </c>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="85">
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79">
         <v>1.5</v>
       </c>
-      <c r="J50" s="86"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="82">
+      <c r="J50" s="80"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="76">
         <v>2</v>
       </c>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="85">
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="79">
         <v>6.1</v>
       </c>
-      <c r="R50" s="87"/>
-      <c r="S50" s="82">
+      <c r="R50" s="81"/>
+      <c r="S50" s="76">
         <v>39365</v>
       </c>
-      <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="83"/>
-      <c r="W50" s="83"/>
-      <c r="X50" s="84"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="78"/>
       <c r="Y50" s="6" t="s">
         <v>41</v>
       </c>
@@ -12042,44 +12038,44 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="20.5" customHeight="1">
-      <c r="A51" s="79">
+      <c r="A51" s="73">
         <v>16</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="82">
+      <c r="E51" s="76">
         <v>76</v>
       </c>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="82">
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="76">
         <v>2</v>
       </c>
-      <c r="J51" s="83"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="85">
+      <c r="J51" s="77"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79">
         <v>2.6</v>
       </c>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="85">
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="79">
         <v>2.9</v>
       </c>
-      <c r="R51" s="87"/>
-      <c r="S51" s="82">
+      <c r="R51" s="81"/>
+      <c r="S51" s="76">
         <v>48911</v>
       </c>
-      <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
-      <c r="V51" s="83"/>
-      <c r="W51" s="83"/>
-      <c r="X51" s="84"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="78"/>
       <c r="Y51" s="6" t="s">
         <v>41</v>
       </c>
@@ -12088,42 +12084,42 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="20.75" customHeight="1">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="91" t="s">
+      <c r="E52" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="91" t="s">
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="92"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="91" t="s">
+      <c r="J52" s="71"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="91" t="s">
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="R52" s="93"/>
-      <c r="S52" s="91" t="s">
+      <c r="R52" s="72"/>
+      <c r="S52" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="T52" s="92"/>
-      <c r="U52" s="92"/>
-      <c r="V52" s="92"/>
-      <c r="W52" s="92"/>
-      <c r="X52" s="93"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="72"/>
       <c r="Y52" s="9"/>
       <c r="Z52" s="10" t="s">
         <v>75</v>
@@ -12141,6 +12137,104 @@
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="A33:Z33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:K52"/>
@@ -12159,104 +12253,6 @@
     <mergeCell ref="L51:P51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:X51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:X44"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:X42"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="A33:Z33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:X34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12266,7 +12262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12293,7 +12289,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.75" customHeight="1">
@@ -12574,8 +12570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -12602,7 +12598,7 @@
         <v>120</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>121</v>
@@ -13074,11 +13070,11 @@
       <c r="A36" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="94" t="s">
+        <v>758</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="D36" s="60">
         <v>6.7799999999999995E-5</v>
@@ -13086,13 +13082,13 @@
     </row>
     <row r="37" spans="1:4" ht="20.5" customHeight="1">
       <c r="A37" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="C37" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D37" s="60">
         <v>3.7800000000000003E-4</v>
@@ -13100,13 +13096,13 @@
     </row>
     <row r="38" spans="1:4" ht="20.75" customHeight="1">
       <c r="A38" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="C38" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="D38" s="60">
         <v>5.7200000000000003E-4</v>
@@ -13114,13 +13110,13 @@
     </row>
     <row r="39" spans="1:4" ht="20.5" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="C39" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D39" s="60">
         <v>2.5400000000000001E-5</v>
@@ -13128,13 +13124,13 @@
     </row>
     <row r="40" spans="1:4" ht="20.75" customHeight="1">
       <c r="A40" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="C40" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="D40" s="60">
         <v>1.2800000000000001E-2</v>
@@ -13142,13 +13138,13 @@
     </row>
     <row r="41" spans="1:4" ht="20.75" customHeight="1">
       <c r="A41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="C41" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="D41" s="60">
         <v>2.7900000000000001E-5</v>
@@ -13156,13 +13152,13 @@
     </row>
     <row r="42" spans="1:4" ht="20.5" customHeight="1">
       <c r="A42" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="C42" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D42" s="60">
         <v>3.2700000000000002E-5</v>
@@ -13170,13 +13166,13 @@
     </row>
     <row r="43" spans="1:4" ht="20.75" customHeight="1">
       <c r="A43" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="C43" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D43" s="60">
         <v>3.8999999999999999E-4</v>
@@ -13184,13 +13180,13 @@
     </row>
     <row r="44" spans="1:4" ht="20.5" customHeight="1">
       <c r="A44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="C44" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="D44" s="60">
         <v>1.03E-4</v>
@@ -13198,13 +13194,13 @@
     </row>
     <row r="45" spans="1:4" ht="20.5" customHeight="1">
       <c r="A45" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="C45" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="D45" s="60">
         <v>9.5799999999999998E-4</v>
@@ -13212,13 +13208,13 @@
     </row>
     <row r="46" spans="1:4" ht="20.75" customHeight="1">
       <c r="A46" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="C46" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D46" s="60">
         <v>1.0399999999999999E-4</v>
@@ -13226,13 +13222,13 @@
     </row>
     <row r="47" spans="1:4" ht="20.5" customHeight="1">
       <c r="A47" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="C47" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="D47" s="60">
         <v>0.82699999999999996</v>
@@ -13240,13 +13236,13 @@
     </row>
     <row r="48" spans="1:4" ht="20.75" customHeight="1">
       <c r="A48" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="C48" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D48" s="60">
         <v>0.43</v>
@@ -13254,13 +13250,13 @@
     </row>
     <row r="49" spans="1:4" ht="20.5" customHeight="1">
       <c r="A49" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="C49" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D49" s="60">
         <v>0.19700000000000001</v>
@@ -13268,13 +13264,13 @@
     </row>
     <row r="50" spans="1:4" ht="20.75" customHeight="1">
       <c r="A50" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="C50" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D50" s="60">
         <v>2.5999999999999998E-5</v>
@@ -13282,13 +13278,13 @@
     </row>
     <row r="51" spans="1:4" ht="20.5" customHeight="1">
       <c r="A51" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="C51" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D51" s="60">
         <v>0.114</v>
@@ -13296,13 +13292,13 @@
     </row>
     <row r="52" spans="1:4" ht="20.5" customHeight="1">
       <c r="A52" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="C52" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="D52" s="60">
         <v>0.13600000000000001</v>
@@ -13310,13 +13306,13 @@
     </row>
     <row r="53" spans="1:4" ht="20.75" customHeight="1">
       <c r="A53" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="C53" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="D53" s="60">
         <v>0.36899999999999999</v>
@@ -13324,13 +13320,13 @@
     </row>
     <row r="54" spans="1:4" ht="20.5" customHeight="1">
       <c r="A54" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="C54" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="D54" s="60">
         <v>3.0799999999999998E-3</v>
@@ -13338,13 +13334,13 @@
     </row>
     <row r="55" spans="1:4" ht="20.75" customHeight="1">
       <c r="A55" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="C55" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="D55" s="60">
         <v>0.108</v>
@@ -13352,13 +13348,13 @@
     </row>
     <row r="56" spans="1:4" ht="20.5" customHeight="1">
       <c r="A56" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="C56" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="D56" s="60">
         <v>0.873</v>
@@ -13366,13 +13362,13 @@
     </row>
     <row r="57" spans="1:4" ht="20.75" customHeight="1">
       <c r="A57" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="C57" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="D57" s="60">
         <v>0.121</v>
@@ -13380,7 +13376,7 @@
     </row>
     <row r="58" spans="1:4" ht="17.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="59"/>
     </row>
@@ -13394,7 +13390,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -13408,20 +13404,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="60">
         <v>0</v>
@@ -13429,7 +13425,7 @@
     </row>
     <row r="4" spans="1:2" ht="20.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="60">
         <v>0</v>
@@ -13437,7 +13433,7 @@
     </row>
     <row r="5" spans="1:2" ht="20.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="60">
         <v>0</v>
@@ -13445,7 +13441,7 @@
     </row>
     <row r="6" spans="1:2" ht="20.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="60">
         <v>6.6599999999999998E-16</v>
@@ -13453,7 +13449,7 @@
     </row>
     <row r="7" spans="1:2" ht="20.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="60">
         <v>0</v>
@@ -13461,7 +13457,7 @@
     </row>
     <row r="8" spans="1:2" ht="20.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="60">
         <v>1.8399999999999999E-14</v>
@@ -13469,7 +13465,7 @@
     </row>
     <row r="9" spans="1:2" ht="20.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="60">
         <v>0.54</v>
@@ -13477,7 +13473,7 @@
     </row>
     <row r="10" spans="1:2" ht="20.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" s="60">
         <v>0</v>
@@ -13485,7 +13481,7 @@
     </row>
     <row r="11" spans="1:2" ht="20.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="60">
         <v>3.2399999999999999E-12</v>
@@ -13493,7 +13489,7 @@
     </row>
     <row r="12" spans="1:2" ht="14">
       <c r="A12" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="17">
         <v>2.8499999999999999E-4</v>
@@ -13501,7 +13497,7 @@
     </row>
     <row r="13" spans="1:2" ht="14">
       <c r="A13" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="17">
         <v>0</v>
@@ -13509,7 +13505,7 @@
     </row>
     <row r="14" spans="1:2" ht="14">
       <c r="A14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" s="17">
         <v>0</v>
@@ -13517,7 +13513,7 @@
     </row>
     <row r="15" spans="1:2" ht="14">
       <c r="A15" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="17">
         <v>0</v>
@@ -13525,7 +13521,7 @@
     </row>
     <row r="16" spans="1:2" ht="14">
       <c r="A16" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" s="17">
         <v>9.73E-6</v>
@@ -13533,7 +13529,7 @@
     </row>
     <row r="17" spans="1:2" ht="14">
       <c r="A17" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="17">
         <v>0.16</v>
@@ -13541,7 +13537,7 @@
     </row>
     <row r="18" spans="1:2" ht="14">
       <c r="A18" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="17">
         <v>0</v>
@@ -13549,7 +13545,7 @@
     </row>
     <row r="19" spans="1:2" ht="14">
       <c r="A19" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="17">
         <v>0</v>
@@ -13564,7 +13560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E119"/>
     </sheetView>
   </sheetViews>
@@ -13581,21 +13577,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.5" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>121</v>
@@ -13603,16 +13599,16 @@
     </row>
     <row r="3" spans="1:5" ht="44.25" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>317</v>
       </c>
       <c r="E3" s="20">
         <v>4.3100000000000002E-8</v>
@@ -13620,16 +13616,16 @@
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="D4" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>321</v>
       </c>
       <c r="E4" s="20">
         <v>9.4699999999999994E-8</v>
@@ -13637,16 +13633,16 @@
     </row>
     <row r="5" spans="1:5" ht="60.75" customHeight="1">
       <c r="A5" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="D5" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>324</v>
       </c>
       <c r="E5" s="20">
         <v>9.4699999999999994E-8</v>
@@ -13654,16 +13650,16 @@
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="D6" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>328</v>
       </c>
       <c r="E6" s="20">
         <v>2.7099999999999998E-7</v>
@@ -13671,16 +13667,16 @@
     </row>
     <row r="7" spans="1:5" ht="44.25" customHeight="1">
       <c r="A7" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="E7" s="20">
         <v>2.7099999999999998E-7</v>
@@ -13688,16 +13684,16 @@
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1">
       <c r="A8" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>332</v>
       </c>
       <c r="E8" s="20">
         <v>2.8200000000000001E-7</v>
@@ -13705,16 +13701,16 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1">
       <c r="A9" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="D9" s="18" t="s">
         <v>334</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>335</v>
       </c>
       <c r="E9" s="20">
         <v>2.8799999999999998E-7</v>
@@ -13722,16 +13718,16 @@
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1">
       <c r="A10" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="E10" s="20">
         <v>2.8799999999999998E-7</v>
@@ -13739,16 +13735,16 @@
     </row>
     <row r="11" spans="1:5" ht="20.75" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="E11" s="17">
         <v>2.8799999999999998E-7</v>
@@ -13758,23 +13754,23 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
       <c r="A13" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="E13" s="20">
         <v>5.4799999999999998E-7</v>
@@ -13782,16 +13778,16 @@
     </row>
     <row r="14" spans="1:5" ht="43.5" customHeight="1">
       <c r="A14" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="D14" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>346</v>
       </c>
       <c r="E14" s="20">
         <v>9.2699999999999998E-7</v>
@@ -13799,16 +13795,16 @@
     </row>
     <row r="15" spans="1:5" ht="20.75" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="58" t="s">
+      <c r="D15" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="E15" s="17">
         <v>1.4899999999999999E-6</v>
@@ -13816,16 +13812,16 @@
     </row>
     <row r="16" spans="1:5" ht="43.5" customHeight="1">
       <c r="A16" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="E16" s="20">
         <v>1.6700000000000001E-6</v>
@@ -13833,16 +13829,16 @@
     </row>
     <row r="17" spans="1:5" ht="20.75" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="E17" s="17">
         <v>1.6700000000000001E-6</v>
@@ -13850,16 +13846,16 @@
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1">
       <c r="A18" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>354</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>355</v>
       </c>
       <c r="E18" s="20">
         <v>2.2500000000000001E-6</v>
@@ -13867,16 +13863,16 @@
     </row>
     <row r="19" spans="1:5" ht="20.5" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="E19" s="17">
         <v>3.0299999999999998E-6</v>
@@ -13884,16 +13880,16 @@
     </row>
     <row r="20" spans="1:5" ht="20.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E20" s="17">
         <v>7.8900000000000007E-6</v>
@@ -13901,16 +13897,16 @@
     </row>
     <row r="21" spans="1:5" ht="44.25" customHeight="1">
       <c r="A21" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="D21" s="18" t="s">
         <v>361</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>362</v>
       </c>
       <c r="E21" s="20">
         <v>1.06E-5</v>
@@ -13918,16 +13914,16 @@
     </row>
     <row r="22" spans="1:5" ht="44.25" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="D22" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>365</v>
       </c>
       <c r="E22" s="20">
         <v>1.3200000000000001E-5</v>
@@ -13935,16 +13931,16 @@
     </row>
     <row r="23" spans="1:5" ht="43.5" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E23" s="20">
         <v>1.7200000000000001E-5</v>
@@ -13952,16 +13948,16 @@
     </row>
     <row r="24" spans="1:5" ht="20.5" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="17">
         <v>1.7200000000000001E-5</v>
@@ -13969,7 +13965,7 @@
     </row>
     <row r="25" spans="1:5" ht="20.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="65"/>
@@ -13978,16 +13974,16 @@
     </row>
     <row r="26" spans="1:5" ht="43.5" customHeight="1">
       <c r="A26" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" s="63" t="s">
+      <c r="D26" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="E26" s="20">
         <v>5.8400000000000003E-5</v>
@@ -13995,16 +13991,16 @@
     </row>
     <row r="27" spans="1:5" ht="43.5" customHeight="1">
       <c r="A27" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>373</v>
       </c>
       <c r="E27" s="20">
         <v>7.25E-5</v>
@@ -14012,16 +14008,16 @@
     </row>
     <row r="28" spans="1:5" ht="20.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" s="17">
         <v>7.7399999999999998E-5</v>
@@ -14029,16 +14025,16 @@
     </row>
     <row r="29" spans="1:5" ht="43.5" customHeight="1">
       <c r="A29" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="63" t="s">
+      <c r="D29" s="18" t="s">
         <v>376</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>377</v>
       </c>
       <c r="E29" s="20">
         <v>8.1699999999999994E-5</v>
@@ -14046,16 +14042,16 @@
     </row>
     <row r="30" spans="1:5" ht="44.25" customHeight="1">
       <c r="A30" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>379</v>
       </c>
       <c r="E30" s="20">
         <v>8.3700000000000002E-5</v>
@@ -14063,16 +14059,16 @@
     </row>
     <row r="31" spans="1:5" ht="44.25" customHeight="1">
       <c r="A31" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>380</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>381</v>
       </c>
       <c r="E31" s="22">
         <v>1.0399999999999999E-4</v>
@@ -14080,16 +14076,16 @@
     </row>
     <row r="32" spans="1:5" ht="60.75" customHeight="1">
       <c r="A32" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="D32" s="18" t="s">
         <v>383</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>384</v>
       </c>
       <c r="E32" s="22">
         <v>1.07E-4</v>
@@ -14097,16 +14093,16 @@
     </row>
     <row r="33" spans="1:5" ht="43.5" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E33" s="22">
         <v>2.22E-4</v>
@@ -14114,16 +14110,16 @@
     </row>
     <row r="34" spans="1:5" ht="20.5" customHeight="1">
       <c r="A34" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="58" t="s">
+      <c r="D34" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="E34" s="23">
         <v>2.5399999999999999E-4</v>
@@ -14131,16 +14127,16 @@
     </row>
     <row r="35" spans="1:5" ht="20.75" customHeight="1">
       <c r="A35" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="E35" s="23">
         <v>2.5399999999999999E-4</v>
@@ -14148,16 +14144,16 @@
     </row>
     <row r="36" spans="1:5" ht="20.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36" s="23">
         <v>2.5399999999999999E-4</v>
@@ -14165,16 +14161,16 @@
     </row>
     <row r="37" spans="1:5" ht="20.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E37" s="24">
         <v>2.5399999999999999E-4</v>
@@ -14182,16 +14178,16 @@
     </row>
     <row r="38" spans="1:5" ht="20.5" customHeight="1">
       <c r="A38" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="E38" s="24">
         <v>2.5399999999999999E-4</v>
@@ -14199,16 +14195,16 @@
     </row>
     <row r="39" spans="1:5" ht="20.75" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>394</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E39" s="24">
         <v>2.7599999999999999E-4</v>
@@ -14216,16 +14212,16 @@
     </row>
     <row r="40" spans="1:5" ht="43.5" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>395</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>396</v>
       </c>
       <c r="E40" s="25">
         <v>2.0300000000000001E-3</v>
@@ -14233,16 +14229,16 @@
     </row>
     <row r="41" spans="1:5" ht="20.75" customHeight="1">
       <c r="A41" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="58" t="s">
+      <c r="D41" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="E41" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14250,16 +14246,16 @@
     </row>
     <row r="42" spans="1:5" ht="20.5" customHeight="1">
       <c r="A42" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E42" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14267,16 +14263,16 @@
     </row>
     <row r="43" spans="1:5" ht="20.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C43" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E43" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14284,16 +14280,16 @@
     </row>
     <row r="44" spans="1:5" ht="20.5" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C44" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E44" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14301,16 +14297,16 @@
     </row>
     <row r="45" spans="1:5" ht="20.5" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E45" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14318,16 +14314,16 @@
     </row>
     <row r="46" spans="1:5" ht="20.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C46" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E46" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14335,16 +14331,16 @@
     </row>
     <row r="47" spans="1:5" ht="20.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E47" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14352,16 +14348,16 @@
     </row>
     <row r="48" spans="1:5" ht="20.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E48" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14369,16 +14365,16 @@
     </row>
     <row r="49" spans="1:5" ht="20.5" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C49" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E49" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14386,16 +14382,16 @@
     </row>
     <row r="50" spans="1:5" ht="20.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E50" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14403,16 +14399,16 @@
     </row>
     <row r="51" spans="1:5" ht="20.5" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C51" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E51" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14420,16 +14416,16 @@
     </row>
     <row r="52" spans="1:5" ht="20.5" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E52" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14437,16 +14433,16 @@
     </row>
     <row r="53" spans="1:5" ht="20.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C53" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E53" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14454,16 +14450,16 @@
     </row>
     <row r="54" spans="1:5" ht="20.5" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E54" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14471,16 +14467,16 @@
     </row>
     <row r="55" spans="1:5" ht="20.75" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C55" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E55" s="26">
         <v>2.7499999999999998E-3</v>
@@ -14488,16 +14484,16 @@
     </row>
     <row r="56" spans="1:5" ht="20.75" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C56" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E56" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14505,16 +14501,16 @@
     </row>
     <row r="57" spans="1:5" ht="20.5" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C57" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14522,16 +14518,16 @@
     </row>
     <row r="58" spans="1:5" ht="20.75" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C58" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14539,16 +14535,16 @@
     </row>
     <row r="59" spans="1:5" ht="20.5" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C59" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E59" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14556,16 +14552,16 @@
     </row>
     <row r="60" spans="1:5" ht="20.5" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E60" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14573,16 +14569,16 @@
     </row>
     <row r="61" spans="1:5" ht="20.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C61" s="58" t="s">
-        <v>402</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E61" s="27">
         <v>2.7499999999999998E-3</v>
@@ -14590,16 +14586,16 @@
     </row>
     <row r="62" spans="1:5" ht="43.5" customHeight="1">
       <c r="A62" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="E62" s="28">
         <v>3.0599999999999998E-3</v>
@@ -14607,16 +14603,16 @@
     </row>
     <row r="63" spans="1:5" ht="20.5" customHeight="1">
       <c r="A63" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>425</v>
-      </c>
       <c r="D63" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="29">
         <v>3.0999999999999999E-3</v>
@@ -14624,16 +14620,16 @@
     </row>
     <row r="64" spans="1:5" ht="43.5" customHeight="1">
       <c r="A64" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="C64" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="D64" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>429</v>
       </c>
       <c r="E64" s="30">
         <v>3.5999999999999999E-3</v>
@@ -14641,16 +14637,16 @@
     </row>
     <row r="65" spans="1:5" ht="20.5" customHeight="1">
       <c r="A65" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="E65" s="27">
         <v>7.1500000000000001E-3</v>
@@ -14658,16 +14654,16 @@
     </row>
     <row r="66" spans="1:5" ht="60.75" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C66" s="64" t="s">
-        <v>434</v>
-      </c>
       <c r="D66" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66" s="28">
         <v>7.9500000000000005E-3</v>
@@ -14675,16 +14671,16 @@
     </row>
     <row r="67" spans="1:5" ht="20.75" customHeight="1">
       <c r="A67" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="E67" s="27">
         <v>8.6700000000000006E-3</v>
@@ -14692,16 +14688,16 @@
     </row>
     <row r="68" spans="1:5" ht="43.5" customHeight="1">
       <c r="A68" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C68" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C68" s="64" t="s">
+      <c r="D68" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="E68" s="31">
         <v>1.2999999999999999E-2</v>
@@ -14709,16 +14705,16 @@
     </row>
     <row r="69" spans="1:5" ht="20.75" customHeight="1">
       <c r="A69" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C69" s="58" t="s">
+      <c r="D69" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="E69" s="29">
         <v>1.7899999999999999E-2</v>
@@ -14726,16 +14722,16 @@
     </row>
     <row r="70" spans="1:5" ht="20.5" customHeight="1">
       <c r="A70" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" s="58" t="s">
+      <c r="D70" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="E70" s="29">
         <v>2.3199999999999998E-2</v>
@@ -14743,16 +14739,16 @@
     </row>
     <row r="71" spans="1:5" ht="20.75" customHeight="1">
       <c r="A71" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>448</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E71" s="29">
         <v>2.3199999999999998E-2</v>
@@ -14760,16 +14756,16 @@
     </row>
     <row r="72" spans="1:5" ht="20.5" customHeight="1">
       <c r="A72" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>450</v>
-      </c>
       <c r="D72" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E72" s="29">
         <v>3.0599999999999999E-2</v>
@@ -14777,16 +14773,16 @@
     </row>
     <row r="73" spans="1:5" ht="20.75" customHeight="1">
       <c r="A73" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="29">
         <v>3.0599999999999999E-2</v>
@@ -14794,16 +14790,16 @@
     </row>
     <row r="74" spans="1:5" ht="43.5" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="30">
         <v>3.0599999999999999E-2</v>
@@ -14811,16 +14807,16 @@
     </row>
     <row r="75" spans="1:5" ht="44.25" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" s="30">
         <v>3.0599999999999999E-2</v>
@@ -14828,16 +14824,16 @@
     </row>
     <row r="76" spans="1:5" ht="20.75" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" s="29">
         <v>3.0599999999999999E-2</v>
@@ -14845,16 +14841,16 @@
     </row>
     <row r="77" spans="1:5" ht="20.5" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="29">
         <v>3.0599999999999999E-2</v>
@@ -14862,16 +14858,16 @@
     </row>
     <row r="78" spans="1:5" ht="20.5" customHeight="1">
       <c r="A78" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="58" t="s">
+      <c r="D78" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="E78" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14879,16 +14875,16 @@
     </row>
     <row r="79" spans="1:5" ht="20.75" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C79" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="E79" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14896,16 +14892,16 @@
     </row>
     <row r="80" spans="1:5" ht="20.5" customHeight="1">
       <c r="A80" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C80" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>461</v>
-      </c>
       <c r="D80" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E80" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14913,16 +14909,16 @@
     </row>
     <row r="81" spans="1:5" ht="20.75" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E81" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14930,16 +14926,16 @@
     </row>
     <row r="82" spans="1:5" ht="20.5" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E82" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14947,16 +14943,16 @@
     </row>
     <row r="83" spans="1:5" ht="20.5" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E83" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14964,16 +14960,16 @@
     </row>
     <row r="84" spans="1:5" ht="20.75" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E84" s="29">
         <v>3.1800000000000002E-2</v>
@@ -14981,16 +14977,16 @@
     </row>
     <row r="85" spans="1:5" ht="43.5" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C85" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E85" s="30">
         <v>3.1800000000000002E-2</v>
@@ -14998,16 +14994,16 @@
     </row>
     <row r="86" spans="1:5" ht="43.5" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15015,16 +15011,16 @@
     </row>
     <row r="87" spans="1:5" ht="44.25" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E87" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15032,16 +15028,16 @@
     </row>
     <row r="88" spans="1:5" ht="20.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E88" s="29">
         <v>3.1800000000000002E-2</v>
@@ -15049,16 +15045,16 @@
     </row>
     <row r="89" spans="1:5" ht="43.5" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C89" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E89" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15066,16 +15062,16 @@
     </row>
     <row r="90" spans="1:5" ht="44.25" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C90" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E90" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15083,16 +15079,16 @@
     </row>
     <row r="91" spans="1:5" ht="43.5" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C91" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E91" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15100,16 +15096,16 @@
     </row>
     <row r="92" spans="1:5" ht="43.5" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E92" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15117,16 +15113,16 @@
     </row>
     <row r="93" spans="1:5" ht="43.5" customHeight="1">
       <c r="A93" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C93" s="64" t="s">
+      <c r="D93" s="32" t="s">
         <v>475</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>476</v>
       </c>
       <c r="E93" s="30">
         <v>3.1800000000000002E-2</v>
@@ -15134,16 +15130,16 @@
     </row>
     <row r="94" spans="1:5" ht="20.75" customHeight="1">
       <c r="A94" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C94" s="58" t="s">
+      <c r="D94" s="33" t="s">
         <v>478</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>479</v>
       </c>
       <c r="E94" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15151,16 +15147,16 @@
     </row>
     <row r="95" spans="1:5" ht="20.5" customHeight="1">
       <c r="A95" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="D95" s="33" t="s">
         <v>480</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C95" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>481</v>
       </c>
       <c r="E95" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15168,16 +15164,16 @@
     </row>
     <row r="96" spans="1:5" ht="20.75" customHeight="1">
       <c r="A96" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C96" s="58" t="s">
+      <c r="D96" s="33" t="s">
         <v>483</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>484</v>
       </c>
       <c r="E96" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15185,16 +15181,16 @@
     </row>
     <row r="97" spans="1:5" ht="20.5" customHeight="1">
       <c r="A97" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C97" s="58" t="s">
+      <c r="D97" s="33" t="s">
         <v>486</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>487</v>
       </c>
       <c r="E97" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15202,16 +15198,16 @@
     </row>
     <row r="98" spans="1:5" ht="43.5" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C98" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D98" s="32" t="s">
         <v>486</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>487</v>
       </c>
       <c r="E98" s="30">
         <v>3.5400000000000001E-2</v>
@@ -15219,16 +15215,16 @@
     </row>
     <row r="99" spans="1:5" ht="20.5" customHeight="1">
       <c r="A99" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C99" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>486</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>487</v>
       </c>
       <c r="E99" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15236,16 +15232,16 @@
     </row>
     <row r="100" spans="1:5" ht="20.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C100" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E100" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15253,16 +15249,16 @@
     </row>
     <row r="101" spans="1:5" ht="43.5" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C101" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="E101" s="30">
         <v>3.5400000000000001E-2</v>
@@ -15270,16 +15266,16 @@
     </row>
     <row r="102" spans="1:5" ht="20.5" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C102" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E102" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15287,16 +15283,16 @@
     </row>
     <row r="103" spans="1:5" ht="20.5" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C103" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E103" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15304,16 +15300,16 @@
     </row>
     <row r="104" spans="1:5" ht="44.25" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C104" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="E104" s="30">
         <v>3.5400000000000001E-2</v>
@@ -15321,16 +15317,16 @@
     </row>
     <row r="105" spans="1:5" ht="20.75" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C105" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E105" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15338,16 +15334,16 @@
     </row>
     <row r="106" spans="1:5" ht="43.5" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C106" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D106" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="E106" s="30">
         <v>3.5400000000000001E-2</v>
@@ -15355,16 +15351,16 @@
     </row>
     <row r="107" spans="1:5" ht="20.75" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C107" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E107" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15372,16 +15368,16 @@
     </row>
     <row r="108" spans="1:5" ht="20.5" customHeight="1">
       <c r="A108" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C108" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E108" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15389,16 +15385,16 @@
     </row>
     <row r="109" spans="1:5" ht="20.75" customHeight="1">
       <c r="A109" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C109" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E109" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15406,16 +15402,16 @@
     </row>
     <row r="110" spans="1:5" ht="20.5" customHeight="1">
       <c r="A110" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C110" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E110" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15423,16 +15419,16 @@
     </row>
     <row r="111" spans="1:5" ht="20.5" customHeight="1">
       <c r="A111" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E111" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15440,16 +15436,16 @@
     </row>
     <row r="112" spans="1:5" ht="20.75" customHeight="1">
       <c r="A112" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C112" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E112" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15457,16 +15453,16 @@
     </row>
     <row r="113" spans="1:5" ht="20.5" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C113" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E113" s="29">
         <v>3.5400000000000001E-2</v>
@@ -15474,16 +15470,16 @@
     </row>
     <row r="114" spans="1:5" ht="44.25" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C114" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>486</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="E114" s="30">
         <v>3.5400000000000001E-2</v>
@@ -15491,16 +15487,16 @@
     </row>
     <row r="115" spans="1:5" ht="20.5" customHeight="1">
       <c r="A115" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C115" s="58" t="s">
+      <c r="D115" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="E115" s="29">
         <v>3.7199999999999997E-2</v>
@@ -15510,23 +15506,23 @@
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
     </row>
     <row r="117" spans="1:5" ht="20.5" customHeight="1">
       <c r="A117" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>509</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C117" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>510</v>
       </c>
       <c r="E117" s="35">
         <v>0.04</v>
@@ -15534,16 +15530,16 @@
     </row>
     <row r="118" spans="1:5" ht="20.75" customHeight="1">
       <c r="A118" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" s="33" t="s">
         <v>511</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>512</v>
       </c>
       <c r="E118" s="29">
         <v>4.9799999999999997E-2</v>
@@ -15551,16 +15547,16 @@
     </row>
     <row r="119" spans="1:5" ht="20.5" customHeight="1">
       <c r="A119" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="B119" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" s="58" t="s">
+      <c r="D119" s="33" t="s">
         <v>514</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>515</v>
       </c>
       <c r="E119" s="29">
         <v>4.9799999999999997E-2</v>
@@ -15592,38 +15588,38 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.5" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="C2" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>518</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60.75" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="18" t="s">
         <v>520</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>521</v>
       </c>
       <c r="E3" s="20">
         <v>5.6400000000000002E-10</v>
@@ -15631,16 +15627,16 @@
     </row>
     <row r="4" spans="1:5" ht="60.75" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>522</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>523</v>
       </c>
       <c r="E4" s="20">
         <v>5.6400000000000002E-10</v>
@@ -15648,16 +15644,16 @@
     </row>
     <row r="5" spans="1:5" ht="60.75" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>525</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E5" s="20">
         <v>3.6199999999999999E-9</v>
@@ -15665,16 +15661,16 @@
     </row>
     <row r="6" spans="1:5" ht="60.75" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="E6" s="20">
         <v>5.3400000000000002E-9</v>
@@ -15682,16 +15678,16 @@
     </row>
     <row r="7" spans="1:5" ht="60.75" customHeight="1">
       <c r="A7" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>529</v>
       </c>
       <c r="E7" s="20">
         <v>7.2500000000000004E-9</v>
@@ -15699,16 +15695,16 @@
     </row>
     <row r="8" spans="1:5" ht="60.75" customHeight="1">
       <c r="A8" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>530</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>531</v>
       </c>
       <c r="E8" s="20">
         <v>1.2100000000000001E-8</v>
@@ -15716,16 +15712,16 @@
     </row>
     <row r="9" spans="1:5" ht="20.5" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>532</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="D9" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="E9" s="17">
         <v>1.3200000000000001E-8</v>
@@ -15733,27 +15729,27 @@
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="60.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E11" s="20">
         <v>1.3200000000000001E-8</v>
@@ -15761,16 +15757,16 @@
     </row>
     <row r="12" spans="1:5" ht="60.75" customHeight="1">
       <c r="A12" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>539</v>
       </c>
       <c r="E12" s="20">
         <v>1.6400000000000001E-8</v>
@@ -15778,16 +15774,16 @@
     </row>
     <row r="13" spans="1:5" ht="60.75" customHeight="1">
       <c r="A13" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="20">
         <v>1.6400000000000001E-8</v>
@@ -15795,16 +15791,16 @@
     </row>
     <row r="14" spans="1:5" ht="60.75" customHeight="1">
       <c r="A14" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>541</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>542</v>
       </c>
       <c r="E14" s="20">
         <v>1.6400000000000001E-8</v>
@@ -15812,16 +15808,16 @@
     </row>
     <row r="15" spans="1:5" ht="60.75" customHeight="1">
       <c r="A15" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>520</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="E15" s="20">
         <v>1.6400000000000001E-8</v>
@@ -15829,16 +15825,16 @@
     </row>
     <row r="16" spans="1:5" ht="60.75" customHeight="1">
       <c r="A16" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>545</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>525</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>546</v>
       </c>
       <c r="E16" s="20">
         <v>1.6400000000000001E-8</v>
@@ -15846,16 +15842,16 @@
     </row>
     <row r="17" spans="1:5" ht="20.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>533</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="E17" s="17">
         <v>2.3400000000000001E-8</v>
@@ -15865,23 +15861,23 @@
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="60.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E19" s="20">
         <v>2.3400000000000001E-8</v>
@@ -15889,16 +15885,16 @@
     </row>
     <row r="20" spans="1:5" ht="60.75" customHeight="1">
       <c r="A20" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>550</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="63" t="s">
+      <c r="D20" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>552</v>
       </c>
       <c r="E20" s="20">
         <v>4.4199999999999999E-8</v>
@@ -15906,16 +15902,16 @@
     </row>
     <row r="21" spans="1:5" ht="44.25" customHeight="1">
       <c r="A21" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>553</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>554</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E21" s="20">
         <v>2.0599999999999999E-7</v>
@@ -15923,16 +15919,16 @@
     </row>
     <row r="22" spans="1:5" ht="60.75" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="D22" s="18" t="s">
         <v>556</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>557</v>
       </c>
       <c r="E22" s="20">
         <v>6.8700000000000005E-7</v>
@@ -15940,16 +15936,16 @@
     </row>
     <row r="23" spans="1:5" ht="108" customHeight="1">
       <c r="A23" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>558</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="63" t="s">
+      <c r="D23" s="18" t="s">
         <v>559</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>560</v>
       </c>
       <c r="E23" s="20">
         <v>3.0599999999999999E-6</v>
@@ -15957,16 +15953,16 @@
     </row>
     <row r="24" spans="1:5" ht="43.5" customHeight="1">
       <c r="A24" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="63" t="s">
         <v>561</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="63" t="s">
+      <c r="D24" s="18" t="s">
         <v>562</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>563</v>
       </c>
       <c r="E24" s="20">
         <v>3.5200000000000002E-6</v>
@@ -15974,16 +15970,16 @@
     </row>
     <row r="25" spans="1:5" ht="20.5" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="58" t="s">
+      <c r="D25" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="E25" s="17">
         <v>3.8999999999999999E-6</v>
@@ -15993,23 +15989,23 @@
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="58" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="60.75" customHeight="1">
       <c r="A27" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>568</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>556</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>569</v>
       </c>
       <c r="E27" s="20">
         <v>5.57E-6</v>
@@ -16017,16 +16013,16 @@
     </row>
     <row r="28" spans="1:5" ht="43.5" customHeight="1">
       <c r="A28" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>571</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E28" s="20">
         <v>2.5899999999999999E-5</v>
@@ -16034,16 +16030,16 @@
     </row>
     <row r="29" spans="1:5" ht="43.5" customHeight="1">
       <c r="A29" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>573</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E29" s="20">
         <v>2.9499999999999999E-5</v>
@@ -16051,16 +16047,16 @@
     </row>
     <row r="30" spans="1:5" ht="44.25" customHeight="1">
       <c r="A30" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>574</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>575</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E30" s="20">
         <v>6.02E-5</v>
@@ -16068,16 +16064,16 @@
     </row>
     <row r="31" spans="1:5" ht="44.25" customHeight="1">
       <c r="A31" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" s="63" t="s">
+      <c r="D31" s="18" t="s">
         <v>577</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>578</v>
       </c>
       <c r="E31" s="30">
         <v>1E-4</v>
@@ -16085,16 +16081,16 @@
     </row>
     <row r="32" spans="1:5" ht="43.5" customHeight="1">
       <c r="A32" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>579</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="D32" s="18" t="s">
         <v>580</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>581</v>
       </c>
       <c r="E32" s="22">
         <v>1.7799999999999999E-4</v>
@@ -16102,16 +16098,16 @@
     </row>
     <row r="33" spans="1:5" ht="43.5" customHeight="1">
       <c r="A33" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>582</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>580</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>583</v>
       </c>
       <c r="E33" s="22">
         <v>2.43E-4</v>
@@ -16119,16 +16115,16 @@
     </row>
     <row r="34" spans="1:5" ht="44.25" customHeight="1">
       <c r="A34" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>584</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>571</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>585</v>
       </c>
       <c r="E34" s="22">
         <v>2.8600000000000001E-4</v>
@@ -16136,16 +16132,16 @@
     </row>
     <row r="35" spans="1:5" ht="44.25" customHeight="1">
       <c r="A35" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>587</v>
-      </c>
       <c r="D35" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E35" s="22">
         <v>3.8200000000000002E-4</v>
@@ -16153,16 +16149,16 @@
     </row>
     <row r="36" spans="1:5" ht="44.25" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E36" s="39">
         <v>3.8200000000000002E-4</v>
@@ -16170,16 +16166,16 @@
     </row>
     <row r="37" spans="1:5" ht="44.25" customHeight="1">
       <c r="A37" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="63" t="s">
+      <c r="D37" s="18" t="s">
         <v>590</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>591</v>
       </c>
       <c r="E37" s="39">
         <v>3.8200000000000002E-4</v>
@@ -16187,16 +16183,16 @@
     </row>
     <row r="38" spans="1:5" ht="43.5" customHeight="1">
       <c r="A38" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="63" t="s">
+      <c r="D38" s="18" t="s">
         <v>593</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>594</v>
       </c>
       <c r="E38" s="39">
         <v>3.97E-4</v>
@@ -16204,16 +16200,16 @@
     </row>
     <row r="39" spans="1:5" ht="43.5" customHeight="1">
       <c r="A39" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="C39" s="63" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="D39" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>598</v>
       </c>
       <c r="E39" s="39">
         <v>3.97E-4</v>
@@ -16221,16 +16217,16 @@
     </row>
     <row r="40" spans="1:5" ht="44.25" customHeight="1">
       <c r="A40" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>599</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>593</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>600</v>
       </c>
       <c r="E40" s="39">
         <v>6.7699999999999998E-4</v>
@@ -16238,16 +16234,16 @@
     </row>
     <row r="41" spans="1:5" ht="44.25" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E41" s="39">
         <v>6.7699999999999998E-4</v>
@@ -16255,16 +16251,16 @@
     </row>
     <row r="42" spans="1:5" ht="60.75" customHeight="1">
       <c r="A42" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" s="58" t="s">
+      <c r="D42" s="18" t="s">
         <v>603</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>604</v>
       </c>
       <c r="E42" s="39">
         <v>7.1299999999999998E-4</v>
@@ -16272,16 +16268,16 @@
     </row>
     <row r="43" spans="1:5" ht="43.5" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" s="63" t="s">
+      <c r="D43" s="18" t="s">
         <v>606</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>607</v>
       </c>
       <c r="E43" s="25">
         <v>1.09E-3</v>
@@ -16289,16 +16285,16 @@
     </row>
     <row r="44" spans="1:5" ht="43.5" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>610</v>
-      </c>
       <c r="D44" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E44" s="25">
         <v>3.8300000000000001E-3</v>
@@ -16306,16 +16302,16 @@
     </row>
     <row r="45" spans="1:5" ht="20.75" customHeight="1">
       <c r="A45" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>611</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>612</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E45" s="40">
         <v>4.8999999999999998E-3</v>
@@ -16325,23 +16321,23 @@
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="58" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" ht="43.5" customHeight="1">
       <c r="A47" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>615</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E47" s="25">
         <v>5.9899999999999997E-3</v>
@@ -16349,16 +16345,16 @@
     </row>
     <row r="48" spans="1:5" ht="43.5" customHeight="1">
       <c r="A48" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="63" t="s">
+      <c r="D48" s="18" t="s">
         <v>617</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>618</v>
       </c>
       <c r="E48" s="25">
         <v>9.0699999999999999E-3</v>
@@ -16366,16 +16362,16 @@
     </row>
     <row r="49" spans="1:5" ht="20.75" customHeight="1">
       <c r="A49" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>620</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49" s="40">
         <v>1.52E-2</v>
@@ -16383,16 +16379,16 @@
     </row>
     <row r="50" spans="1:5" ht="20.5" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E50" s="40">
         <v>1.52E-2</v>
@@ -16400,16 +16396,16 @@
     </row>
     <row r="51" spans="1:5" ht="44.25" customHeight="1">
       <c r="A51" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="63" t="s">
         <v>622</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>623</v>
-      </c>
       <c r="D51" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E51" s="41">
         <v>1.78E-2</v>
@@ -16417,16 +16413,16 @@
     </row>
     <row r="52" spans="1:5" ht="43.5" customHeight="1">
       <c r="A52" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>624</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>580</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>625</v>
       </c>
       <c r="E52" s="41">
         <v>2.07E-2</v>
@@ -16434,16 +16430,16 @@
     </row>
     <row r="53" spans="1:5" ht="93.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C53" s="63" t="s">
+        <v>625</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>626</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>627</v>
       </c>
       <c r="E53" s="41">
         <v>4.7100000000000003E-2</v>
@@ -16491,26 +16487,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.5" customHeight="1">
       <c r="A2" s="57" t="s">
+        <v>628</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="57" t="s">
         <v>630</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B3" s="60">
         <v>2.5400000000000002E-25</v>
@@ -16524,7 +16520,7 @@
     </row>
     <row r="4" spans="1:4" ht="20.5" customHeight="1">
       <c r="A4" s="58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B4" s="60">
         <v>8.3699999999999996E-23</v>
@@ -16538,7 +16534,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.5" customHeight="1">
       <c r="A5" s="58" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B5" s="60">
         <v>1.0999999999999999E-19</v>
@@ -16552,7 +16548,7 @@
     </row>
     <row r="6" spans="1:4" ht="20.75" customHeight="1">
       <c r="A6" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B6" s="60">
         <v>1.13E-19</v>
@@ -16566,7 +16562,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.5" customHeight="1">
       <c r="A7" s="58" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B7" s="60">
         <v>1.25E-17</v>
@@ -16580,7 +16576,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.75" customHeight="1">
       <c r="A8" s="58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" s="60">
         <v>1.2699999999999999E-15</v>
@@ -16594,7 +16590,7 @@
     </row>
     <row r="9" spans="1:4" ht="20.5" customHeight="1">
       <c r="A9" s="58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9" s="60">
         <v>1.15E-14</v>
@@ -16608,7 +16604,7 @@
     </row>
     <row r="10" spans="1:4" ht="20.5" customHeight="1">
       <c r="A10" s="58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B10" s="60">
         <v>1.78E-13</v>
@@ -16622,7 +16618,7 @@
     </row>
     <row r="11" spans="1:4" ht="20.75" customHeight="1">
       <c r="A11" s="58" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B11" s="60">
         <v>1.2200000000000001E-12</v>
@@ -16636,7 +16632,7 @@
     </row>
     <row r="12" spans="1:4" ht="20.5" customHeight="1">
       <c r="A12" s="58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B12" s="60">
         <v>1.41E-10</v>
@@ -16650,7 +16646,7 @@
     </row>
     <row r="13" spans="1:4" ht="20.75" customHeight="1">
       <c r="A13" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" s="60">
         <v>2.2900000000000001E-10</v>
@@ -16664,7 +16660,7 @@
     </row>
     <row r="14" spans="1:4" ht="20.5" customHeight="1">
       <c r="A14" s="58" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B14" s="60">
         <v>3.3E-10</v>
@@ -16678,7 +16674,7 @@
     </row>
     <row r="15" spans="1:4" ht="20.75" customHeight="1">
       <c r="A15" s="58" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B15" s="60">
         <v>3.3E-10</v>
@@ -16692,7 +16688,7 @@
     </row>
     <row r="16" spans="1:4" ht="20.5" customHeight="1">
       <c r="A16" s="58" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B16" s="60">
         <v>8.9999999999999999E-10</v>
@@ -16706,7 +16702,7 @@
     </row>
     <row r="17" spans="1:4" ht="20.5" customHeight="1">
       <c r="A17" s="58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B17" s="60">
         <v>1.99E-9</v>
@@ -16720,7 +16716,7 @@
     </row>
     <row r="18" spans="1:4" ht="20.75" customHeight="1">
       <c r="A18" s="58" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B18" s="60">
         <v>7.0399999999999997E-9</v>
@@ -16734,7 +16730,7 @@
     </row>
     <row r="19" spans="1:4" ht="20.5" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B19" s="60">
         <v>8.0999999999999997E-9</v>
@@ -16748,7 +16744,7 @@
     </row>
     <row r="20" spans="1:4" ht="20.75" customHeight="1">
       <c r="A20" s="58" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B20" s="60">
         <v>1.92E-8</v>
@@ -16762,7 +16758,7 @@
     </row>
     <row r="21" spans="1:4" ht="20.75" customHeight="1">
       <c r="A21" s="58" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B21" s="60">
         <v>1.9399999999999998E-8</v>
@@ -16776,7 +16772,7 @@
     </row>
     <row r="22" spans="1:4" ht="20.5" customHeight="1">
       <c r="A22" s="58" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B22" s="60">
         <v>2.9700000000000001E-8</v>
@@ -16790,7 +16786,7 @@
     </row>
     <row r="23" spans="1:4" ht="20.75" customHeight="1">
       <c r="A23" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B23" s="60">
         <v>3.4900000000000001E-7</v>
@@ -16804,7 +16800,7 @@
     </row>
     <row r="24" spans="1:4" ht="20.5" customHeight="1">
       <c r="A24" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B24" s="60">
         <v>5.7400000000000003E-7</v>
@@ -16818,7 +16814,7 @@
     </row>
     <row r="25" spans="1:4" ht="20.5" customHeight="1">
       <c r="A25" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B25" s="60">
         <v>1.99E-6</v>
@@ -16832,7 +16828,7 @@
     </row>
     <row r="26" spans="1:4" ht="20.75" customHeight="1">
       <c r="A26" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B26" s="60">
         <v>3.2100000000000002E-6</v>
@@ -16846,7 +16842,7 @@
     </row>
     <row r="27" spans="1:4" ht="20.5" customHeight="1">
       <c r="A27" s="58" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B27" s="60">
         <v>5.7300000000000002E-6</v>
@@ -16860,7 +16856,7 @@
     </row>
     <row r="28" spans="1:4" ht="20.75" customHeight="1">
       <c r="A28" s="58" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B28" s="60">
         <v>5.3100000000000003E-5</v>
@@ -16874,7 +16870,7 @@
     </row>
     <row r="29" spans="1:4" ht="20.5" customHeight="1">
       <c r="A29" s="58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B29" s="60">
         <v>5.5099999999999998E-5</v>
@@ -16888,7 +16884,7 @@
     </row>
     <row r="30" spans="1:4" ht="20.75" customHeight="1">
       <c r="A30" s="58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B30" s="60">
         <v>5.5099999999999998E-5</v>
@@ -16902,7 +16898,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.5" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B31" s="60">
         <v>1.05E-4</v>
@@ -16916,7 +16912,7 @@
     </row>
     <row r="32" spans="1:4" ht="20.5" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B32" s="60">
         <v>2.0000000000000001E-4</v>
@@ -16930,7 +16926,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.75" customHeight="1">
       <c r="A33" s="58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B33" s="60">
         <v>2.0000000000000001E-4</v>
@@ -16944,7 +16940,7 @@
     </row>
     <row r="34" spans="1:4" ht="20.5" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B34" s="60">
         <v>3.0800000000000001E-4</v>
@@ -16958,7 +16954,7 @@
     </row>
     <row r="35" spans="1:4" ht="20.75" customHeight="1">
       <c r="A35" s="58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B35" s="60">
         <v>4.4700000000000002E-4</v>
@@ -16972,7 +16968,7 @@
     </row>
     <row r="36" spans="1:4" ht="20.5" customHeight="1">
       <c r="A36" s="58" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B36" s="60">
         <v>5.5599999999999996E-4</v>
@@ -16986,7 +16982,7 @@
     </row>
     <row r="37" spans="1:4" ht="20.5" customHeight="1">
       <c r="A37" s="58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B37" s="60">
         <v>1.2800000000000001E-3</v>
@@ -17000,7 +16996,7 @@
     </row>
     <row r="38" spans="1:4" ht="20.75" customHeight="1">
       <c r="A38" s="58" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B38" s="60">
         <v>1.9599999999999999E-3</v>
@@ -17014,7 +17010,7 @@
     </row>
     <row r="39" spans="1:4" ht="20.5" customHeight="1">
       <c r="A39" s="58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B39" s="60">
         <v>2E-3</v>
@@ -17028,7 +17024,7 @@
     </row>
     <row r="40" spans="1:4" ht="20.75" customHeight="1">
       <c r="A40" s="58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B40" s="60">
         <v>2.82E-3</v>
@@ -17042,7 +17038,7 @@
     </row>
     <row r="41" spans="1:4" ht="20.75" customHeight="1">
       <c r="A41" s="58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B41" s="60">
         <v>2.82E-3</v>
@@ -17056,7 +17052,7 @@
     </row>
     <row r="42" spans="1:4" ht="20.5" customHeight="1">
       <c r="A42" s="58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B42" s="60">
         <v>2.9299999999999999E-3</v>
@@ -17070,7 +17066,7 @@
     </row>
     <row r="43" spans="1:4" ht="20.75" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B43" s="60">
         <v>4.1599999999999996E-3</v>
@@ -17084,7 +17080,7 @@
     </row>
     <row r="44" spans="1:4" ht="20.5" customHeight="1">
       <c r="A44" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B44" s="60">
         <v>4.4600000000000004E-3</v>
@@ -17098,7 +17094,7 @@
     </row>
     <row r="45" spans="1:4" ht="20.5" customHeight="1">
       <c r="A45" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B45" s="60">
         <v>4.47E-3</v>
@@ -17112,7 +17108,7 @@
     </row>
     <row r="46" spans="1:4" ht="20.75" customHeight="1">
       <c r="A46" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B46" s="60">
         <v>4.8399999999999997E-3</v>
@@ -17126,7 +17122,7 @@
     </row>
     <row r="47" spans="1:4" ht="20.5" customHeight="1">
       <c r="A47" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B47" s="60">
         <v>4.8799999999999998E-3</v>
@@ -17140,7 +17136,7 @@
     </row>
     <row r="48" spans="1:4" ht="20.75" customHeight="1">
       <c r="A48" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B48" s="60">
         <v>5.1799999999999997E-3</v>
@@ -17154,7 +17150,7 @@
     </row>
     <row r="49" spans="1:4" ht="20.5" customHeight="1">
       <c r="A49" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B49" s="60">
         <v>6.0400000000000002E-3</v>
@@ -17168,7 +17164,7 @@
     </row>
     <row r="50" spans="1:4" ht="20.75" customHeight="1">
       <c r="A50" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B50" s="60">
         <v>6.0699999999999999E-3</v>
@@ -17182,7 +17178,7 @@
     </row>
     <row r="51" spans="1:4" ht="20.5" customHeight="1">
       <c r="A51" s="58" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B51" s="60">
         <v>6.3099999999999996E-3</v>
@@ -17196,7 +17192,7 @@
     </row>
     <row r="52" spans="1:4" ht="20.5" customHeight="1">
       <c r="A52" s="58" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B52" s="60">
         <v>6.6100000000000004E-3</v>
@@ -17210,7 +17206,7 @@
     </row>
     <row r="53" spans="1:4" ht="20.75" customHeight="1">
       <c r="A53" s="58" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B53" s="60">
         <v>7.1599999999999997E-3</v>
@@ -17224,7 +17220,7 @@
     </row>
     <row r="54" spans="1:4" ht="20.5" customHeight="1">
       <c r="A54" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B54" s="60">
         <v>7.1599999999999997E-3</v>
@@ -17238,7 +17234,7 @@
     </row>
     <row r="55" spans="1:4" ht="20.75" customHeight="1">
       <c r="A55" s="58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B55" s="60">
         <v>7.8100000000000001E-3</v>
@@ -17252,7 +17248,7 @@
     </row>
     <row r="56" spans="1:4" ht="20.5" customHeight="1">
       <c r="A56" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B56" s="60">
         <v>7.9399999999999991E-3</v>
@@ -17266,7 +17262,7 @@
     </row>
     <row r="57" spans="1:4" ht="20.5" customHeight="1">
       <c r="A57" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B57" s="60">
         <v>1.1299999999999999E-2</v>
@@ -17280,7 +17276,7 @@
     </row>
     <row r="58" spans="1:4" ht="20.75" customHeight="1">
       <c r="A58" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B58" s="60">
         <v>1.5100000000000001E-2</v>
@@ -17294,7 +17290,7 @@
     </row>
     <row r="59" spans="1:4" ht="20.5" customHeight="1">
       <c r="A59" s="58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B59" s="60">
         <v>2.3800000000000002E-2</v>
@@ -17308,7 +17304,7 @@
     </row>
     <row r="60" spans="1:4" ht="20.75" customHeight="1">
       <c r="A60" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B60" s="60">
         <v>2.5999999999999999E-2</v>
@@ -17322,7 +17318,7 @@
     </row>
     <row r="61" spans="1:4" ht="20.75" customHeight="1">
       <c r="A61" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B61" s="60">
         <v>2.64E-2</v>
@@ -17336,7 +17332,7 @@
     </row>
     <row r="62" spans="1:4" ht="20.5" customHeight="1">
       <c r="A62" s="58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B62" s="60">
         <v>3.9600000000000003E-2</v>
@@ -17350,7 +17346,7 @@
     </row>
     <row r="63" spans="1:4" ht="20.75" customHeight="1">
       <c r="A63" s="58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B63" s="60">
         <v>4.1500000000000002E-2</v>
@@ -17364,7 +17360,7 @@
     </row>
     <row r="64" spans="1:4" ht="20.5" customHeight="1">
       <c r="A64" s="58" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B64" s="60">
         <v>4.6300000000000001E-2</v>
@@ -17378,37 +17374,37 @@
     </row>
     <row r="65" spans="1:1" ht="17.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17.25" customHeight="1">
@@ -17418,62 +17414,62 @@
     </row>
     <row r="73" spans="1:1" ht="24.5" customHeight="1">
       <c r="A73" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="24.25" customHeight="1">
       <c r="A74" s="44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="20" customHeight="1">
       <c r="A75" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17.5" customHeight="1">
       <c r="A76" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="20" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17.5" customHeight="1">
       <c r="A78" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="24.25" customHeight="1">
       <c r="A79" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="24.25" customHeight="1">
       <c r="A80" s="47" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17.5" customHeight="1">
       <c r="A81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17.5" customHeight="1">
       <c r="A82" s="48" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.5" customHeight="1">
       <c r="A83" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17.5" customHeight="1">
       <c r="A84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="11.5" customHeight="1">
@@ -17483,7 +17479,7 @@
     </row>
     <row r="86" spans="1:1" ht="17.5" customHeight="1">
       <c r="A86" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.5" customHeight="1">
@@ -17493,117 +17489,117 @@
     </row>
     <row r="88" spans="1:1" ht="17.5" customHeight="1">
       <c r="A88" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17.5" customHeight="1">
       <c r="A89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17.5" customHeight="1">
       <c r="A90" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="22" customHeight="1">
       <c r="A91" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17.5" customHeight="1">
       <c r="A92" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17.5" customHeight="1">
       <c r="A93" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="24.25" customHeight="1">
       <c r="A94" s="44" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="22.75" customHeight="1">
       <c r="A95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17.5" customHeight="1">
       <c r="A96" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17.5" customHeight="1">
       <c r="A97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="24.25" customHeight="1">
       <c r="A98" s="44" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17.5" customHeight="1">
       <c r="A99" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.5" customHeight="1">
       <c r="A100" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="24.25" customHeight="1">
       <c r="A101" s="44" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="24.25" customHeight="1">
       <c r="A102" s="47" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17.5" customHeight="1">
       <c r="A103" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.5" customHeight="1">
       <c r="A104" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.5" customHeight="1">
       <c r="A105" s="46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.5" customHeight="1">
       <c r="A106" s="51" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17.5" customHeight="1">
       <c r="A107" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17.5" customHeight="1">
       <c r="A108" s="51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17.5" customHeight="1">
       <c r="A109" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17.5" customHeight="1">
       <c r="A110" s="51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17.5" customHeight="1">
@@ -17613,87 +17609,87 @@
     </row>
     <row r="112" spans="1:1" ht="17.5" customHeight="1">
       <c r="A112" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17.5" customHeight="1">
       <c r="A113" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17.5" customHeight="1">
       <c r="A114" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="24.25" customHeight="1">
       <c r="A115" s="44" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24.25" customHeight="1">
       <c r="A116" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17.5" customHeight="1">
       <c r="A117" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17.5" customHeight="1">
       <c r="A118" s="46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18.5" customHeight="1">
       <c r="A119" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17.5" customHeight="1">
       <c r="A120" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="24.25" customHeight="1">
       <c r="A121" s="44" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17.5" customHeight="1">
       <c r="A122" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17.5" customHeight="1">
       <c r="A123" s="51" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17.5" customHeight="1">
       <c r="A124" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17.5" customHeight="1">
       <c r="A125" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.5" customHeight="1">
       <c r="A126" s="46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17.5" customHeight="1">
       <c r="A127" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17.5" customHeight="1">
       <c r="A128" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17.5" customHeight="1">
@@ -17703,12 +17699,12 @@
     </row>
     <row r="130" spans="1:1" ht="17.5" customHeight="1">
       <c r="A130" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17.5" customHeight="1">
       <c r="A131" s="52" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17.5" customHeight="1">
